--- a/by trial data.xlsx
+++ b/by trial data.xlsx
@@ -14391,7 +14391,7 @@
     <t>['Regimen A', 'Regimen B']</t>
   </si>
   <si>
-    <t>['4 Cycles (Arm I and Arm III Combined)', '6 Cycles (Arm II and Arm IV Combined)']</t>
+    <t>['6 Cycles', '4 Cycles']</t>
   </si>
   <si>
     <t>['Teriparatide', 'Alendronate']</t>
@@ -14415,10 +14415,10 @@
     <t>['Placebo + Letrozole 2.5 mg', 'Lapatinib 1500 mg + Letrozole 2.5 mg']</t>
   </si>
   <si>
-    <t>['RO0503821 (1x/2 Weeks)', 'Epoetin (1-3x/Week)']</t>
-  </si>
-  <si>
-    <t>['RO0503821 (1x/2 Weeks)', 'Epoetin Reference']</t>
+    <t>['RO0503821 (1x/4 Weeks)', 'Epoetin (1-3x/Week)']</t>
+  </si>
+  <si>
+    <t>['RO0503821 (1x/4 Weeks)', 'Epoetin Reference']</t>
   </si>
   <si>
     <t>['RO0503821 (1x/2 Weeks)', 'Darbepoetin (1x/1-2 Weeks)']</t>
@@ -14445,7 +14445,7 @@
     <t>['Placebo', 'Spironolactone']</t>
   </si>
   <si>
-    <t>['Ipilimumab Plus gp100', 'gp100']</t>
+    <t>['Ipilimumab Monotherapy', 'gp100']</t>
   </si>
   <si>
     <t>['Thalidomide + Dexamethasone', 'DOXIL + Thalidomide + Dexamethasone']</t>
@@ -14463,13 +14463,13 @@
     <t>['Bisphosphonate IV Q4W', 'Denosumab 180 mg Q4W']</t>
   </si>
   <si>
-    <t>['Placebo + Methotrexate', 'Tocilizumab 4 mg/kg + Methotrexate']</t>
+    <t>['Placebo + Methotrexate', 'Tocilizumab 8 mg/kg + Methotrexate']</t>
   </si>
   <si>
     <t>['Sitagliptin', 'Placebo/ Pioglitazone']</t>
   </si>
   <si>
-    <t>['Alemtuzumab Low- Risk Patients', 'Conventional Low-Risk Patients']</t>
+    <t>['Alemtuzumab High-Risk Patients', 'Conventional High-Risk Patients']</t>
   </si>
   <si>
     <t>['Belatacept More Intensive (MI) Regimen', 'Cyclosporin A (CsA)']</t>
@@ -14496,6 +14496,9 @@
     <t>['Randomized to Immunosuppression Withdrawal', 'Randomized to Immunosuppression Maintenance']</t>
   </si>
   <si>
+    <t>['Dabigatran 150mg', 'Enoxaparin']</t>
+  </si>
+  <si>
     <t>['Dabigatran 220mg', 'Enoxaparin']</t>
   </si>
   <si>
@@ -14511,7 +14514,7 @@
     <t>['Atomoxetine', 'Placebo']</t>
   </si>
   <si>
-    <t>['Gemcitabine/Carboplatin (Induction)', 'Paclitaxel/Carboplatin (Induction)']</t>
+    <t>['Gemcitabine/Carboplatin', 'Paclitaxel/Carboplatin']</t>
   </si>
   <si>
     <t>['Ezetimibe/Simvastatin', 'Simvastatin']</t>
@@ -14523,10 +14526,10 @@
     <t>['SURFAXIN Low Dose', 'Placebo']</t>
   </si>
   <si>
-    <t>['Randomized Sibutramine', 'Randomized Placebo']</t>
-  </si>
-  <si>
-    <t>['Vitamin E', 'Memantine']</t>
+    <t>['CV + DM Randomized to Sibutramine', 'CV + DM Randomized to Placebo']</t>
+  </si>
+  <si>
+    <t>['Memantine', 'Vitamin E + Memantine']</t>
   </si>
   <si>
     <t>['Irbesartan', 'Placebo']</t>
@@ -14553,7 +14556,7 @@
     <t>['Menhibrix Group', 'ActHIB Group']</t>
   </si>
   <si>
-    <t>['MK-0524B 2g/40mg', 'Atorvastatin 80 mg']</t>
+    <t>['MK-0524B 2g/40mg', 'Atorvastatin 20 mg']</t>
   </si>
   <si>
     <t>['Voriconazole', 'Itraconazole']</t>
@@ -14565,13 +14568,13 @@
     <t>['Bosentan', 'Placebo']</t>
   </si>
   <si>
-    <t>['Misoprostol Vaginal Insert (MVI) 50', 'Cervidil 10 mg Vaginal Insert']</t>
+    <t>['Misoprostol Vaginal Insert (MVI) 100', 'Cervidil 10 mg Vaginal Insert']</t>
   </si>
   <si>
     <t>['Enzastaurin/Pemetrexed/Carboplatin', 'Docetaxel/Carboplatin']</t>
   </si>
   <si>
-    <t>['Double-blind BTDS 5', 'Double-blind BTDS 20']</t>
+    <t>['Double-blind BTDS 5', 'Double-blind Oxycodone Immediate-Release']</t>
   </si>
   <si>
     <t>['Early Epoetin Beta Therapy', 'Late Epoetin Beta Therapy']</t>
@@ -14589,13 +14592,13 @@
     <t>['Enzastaurin: Arm A - Experimental', 'Placebo: Arm B - Control']</t>
   </si>
   <si>
-    <t>['Mutant KRAS - Panitumumab Plus FOLFIRI', 'Mutant KRAS - FOLFIRI Alone']</t>
-  </si>
-  <si>
-    <t>['Celecoxib', 'Naproxen']</t>
-  </si>
-  <si>
-    <t>['Placebo', '2mg Rosiglitazone Extended Release']</t>
+    <t>['Wild-type KRAS - Panitumumab Plus FOLFIRI', 'Wild-type KRAS - FOLFIRI Alone']</t>
+  </si>
+  <si>
+    <t>['Ibuprofen', 'Naproxen']</t>
+  </si>
+  <si>
+    <t>['Placebo', '8mg Rosiglitazone Extended Release']</t>
   </si>
   <si>
     <t>['Placebo', 'Darbepoetin Alfa']</t>
@@ -14610,34 +14613,37 @@
     <t>['Mutant KRAS - FOLFOX + Panitumumab', 'Mutant KRAS - FOLFOX']</t>
   </si>
   <si>
-    <t>['Focal/Grid Laser Photocoagulation', '4 mg Intravitreal Triamcinolone']</t>
+    <t>['1mg Intravitreal Triamcinolone', '4 mg Intravitreal Triamcinolone']</t>
+  </si>
+  <si>
+    <t>['13vPnC After Infant Series', '7vPnC After Infant Series']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Lapatinib']</t>
+  </si>
+  <si>
+    <t>['Apixaban 2.5mg BID', 'Enoxaparin 30 mg SC Injection q 12 Hours']</t>
+  </si>
+  <si>
+    <t>['Valganciclovir CMV Prophylaxis', 'Pre-emptive CMV Therapy']</t>
+  </si>
+  <si>
+    <t>['CP-751,871 + Exemestane', 'Exemestane']</t>
+  </si>
+  <si>
+    <t>['Sunitinib', 'Capecitabine']</t>
   </si>
   <si>
     <t>['13vPnC', '7vPnC']</t>
   </si>
   <si>
-    <t>['Placebo', 'Lapatinib']</t>
-  </si>
-  <si>
-    <t>['Apixaban 2.5mg BID', 'Enoxaparin 30 mg SC Injection q 12 Hours']</t>
-  </si>
-  <si>
-    <t>['Valganciclovir CMV Prophylaxis', 'Pre-emptive CMV Therapy']</t>
-  </si>
-  <si>
-    <t>['CP-751,871 + Exemestane', 'Exemestane']</t>
-  </si>
-  <si>
-    <t>['Sunitinib', 'Capecitabine']</t>
-  </si>
-  <si>
     <t>['Sunitinib', 'Placebo']</t>
   </si>
   <si>
     <t>['Combined RSG', 'Combined MET/SU']</t>
   </si>
   <si>
-    <t>['Enteral Zinc, Selenium, Glutamine, and IV Metoclopramide', 'Enteral Whey Protein, IV Saline']</t>
+    <t>['Daily Nutriceutical Supplementation', 'Whey Protein']</t>
   </si>
   <si>
     <t>['Placebo', 'Clopidogrel 0.2 mg/kg/Day']</t>
@@ -14667,7 +14673,7 @@
     <t>['Placebo', 'Lapatinib 1500 mg']</t>
   </si>
   <si>
-    <t>['Arm A (Chemo + Placebo)', 'Arm C (Chemo + Bevacizumab Then Bevacizumab Monotherapy)']</t>
+    <t>['Arm B (Chemo + Bevacizumab)', 'Arm C (Chemo + Bevacizumab Then Bevacizumab Monotherapy)']</t>
   </si>
   <si>
     <t>['Capecitabine + Enzastaurin', 'Capecitabine + Placebo']</t>
@@ -14676,7 +14682,7 @@
     <t>['Rivaroxaban (Xarelto, BAY59-7939)', 'Enoxaparin/VKA']</t>
   </si>
   <si>
-    <t>['Pregabalin (150 mg)', 'Placebo']</t>
+    <t>['Pregabalin (300 mg)', 'Placebo']</t>
   </si>
   <si>
     <t>['13vPnC (Pilot Lot 2)', '13vPnC (Manufacturing Lot)']</t>
@@ -14691,7 +14697,7 @@
     <t>['HZT-501', 'Ibuprofen']</t>
   </si>
   <si>
-    <t>['Apixaban, 2.5 mg BID', 'Enoxaparin, 40 mg QD']</t>
+    <t>['Apixaban, 2.5 mg BID + Placebo', 'Enoxaparin, 40 mg QD + Placebo']</t>
   </si>
   <si>
     <t>['Ixabepilone', 'Paclitaxel']</t>
@@ -14721,7 +14727,7 @@
     <t>['Regimen 1 Conivaptan QD', 'Regimen 2 Conivaptan BID']</t>
   </si>
   <si>
-    <t>['GSK1572932 No-CT Group', 'Placebo No-CT Group']</t>
+    <t>['GSK1572932 Group', 'Placebo Group']</t>
   </si>
   <si>
     <t>['Sita/Met FDC', 'Metformin']</t>
@@ -14733,7 +14739,7 @@
     <t>['Placebo Control at 12-16 Weeks Gestation', 'Praziquantel at 12-16 Weeks Gestation']</t>
   </si>
   <si>
-    <t>['Lapatinib plusTrastuzumab', 'Trastuzumab']</t>
+    <t>['Trastuzumab Followed by Lapatinib', 'Trastuzumab']</t>
   </si>
   <si>
     <t>['Moxifloxacin (Avelox, BAY12-8039)', 'Ertapenem']</t>
@@ -14763,10 +14769,10 @@
     <t>['Sitagliptin 25 mg', 'Glipizide 2.5 mg - 20 mg']</t>
   </si>
   <si>
-    <t>['Ranibizumab 0.5mg Q4', 'IAI (EYLEA, VEGF Trap-Eye) 2.0mg Q4']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'Nintedanib 50 qd']</t>
+    <t>['Ranibizumab 0.5mg Q4', 'IAI (EYLEA, VEGF Trap-Eye) 0.5mg Q4']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Nintedanib 100 Bid']</t>
   </si>
   <si>
     <t>['Afatinib 50 mg - Stage 1', 'Cetuximab 250 mg/m2 - Stage 1']</t>
@@ -14784,7 +14790,7 @@
     <t>['Placebo', 'Vorapaxar']</t>
   </si>
   <si>
-    <t>['Ipilimumab/Placebo + Paclitaxil/Carboplatin (Concurrent)', 'Placebo + Paclitaxel/Carboplatin']</t>
+    <t>['Ipilimumab + Paclitaxel/Carboplatin (Sequential)', 'Placebo + Paclitaxel/Carboplatin']</t>
   </si>
   <si>
     <t>['Odanacatib 50 mg OW', 'Placebo']</t>
@@ -14808,7 +14814,7 @@
     <t>['Albumin-bound Paclitaxel + Carboplatin', 'Paclitaxel + Carboplatin']</t>
   </si>
   <si>
-    <t>['Tacrolimus/MMF/Basiliximab', 'Alefacept QW/Tacrolimus/MMF']</t>
+    <t>['Tacrolimus/MMF/Basiliximab', 'Alefacept QW/Tacrolimus']</t>
   </si>
   <si>
     <t>['Adjusted MMF + Tacrolimus + CS', 'Fixed-Dose MMF + Tacrolimus + CS']</t>
@@ -14817,7 +14823,7 @@
     <t>['Panitumumab Plus Radiotherapy', 'Chemoradiotherapy']</t>
   </si>
   <si>
-    <t>['0 Âµg Iron/dL of Dialysate', '12 Âµg Iron/dL of Dialysate']</t>
+    <t>['0 Âµg Iron/dL of Dialysate', '5 Âµg Iron/dL of Dialysate']</t>
   </si>
   <si>
     <t>['Pathological Complete Response (pCR)', 'No Pathological Complete Response (pCR)']</t>
@@ -14826,7 +14832,7 @@
     <t>['Arm A: Continuous Letrozole', 'Arm B: Intermittent Letrozole']</t>
   </si>
   <si>
-    <t>['Placebo', 'VI-0521 Top']</t>
+    <t>['Placebo', 'VI-0521 Mid']</t>
   </si>
   <si>
     <t>['Placebo', 'Erlotinib, 150 mg/Day']</t>
@@ -14841,7 +14847,7 @@
     <t>['Rivaroxaban (Xarelto, BAY59-7939)', 'Enoxaparin']</t>
   </si>
   <si>
-    <t>['AVP-923-30', 'Placebo']</t>
+    <t>['AVP-923-20', 'Placebo']</t>
   </si>
   <si>
     <t>['Doripenem', 'Imipenem-cilastatin']</t>
@@ -14865,7 +14871,7 @@
     <t>['Drotrecogin Alfa (Activated)', 'Placebo']</t>
   </si>
   <si>
-    <t>['Sufentanil NanoTab 15 Mcg', 'Placebo NanoTab']</t>
+    <t>['Sufentanil NanoTab 10 Mcg', 'Placebo NanoTab']</t>
   </si>
   <si>
     <t>['Fosaprepitant', 'Aprepitant']</t>
@@ -14874,7 +14880,7 @@
     <t>['Linagliptin', 'Glimepiride']</t>
   </si>
   <si>
-    <t>['MenACWY-CRM+ MMRV', 'MMRV']</t>
+    <t>['MenACWY-CRM+ MMRV', 'MenACWY-CRM']</t>
   </si>
   <si>
     <t>['Bevacizumab+Temsirolimus', 'Bevacizumab+ Interferon-Alfa']</t>
@@ -14883,7 +14889,7 @@
     <t>['Apixaban 5 mg', 'Placebo']</t>
   </si>
   <si>
-    <t>['Ranibizumab 0.5mg Q4', 'Aflibercept Injection (EYLEA, VEGF Trap-Eye) 2mg Q8']</t>
+    <t>['Ranibizumab 0.5mg Q4', 'Aflibercept Injection (EYLEA, VEGF Trap-Eye) 0.5mg Q4']</t>
   </si>
   <si>
     <t>['Abiraterone Acetate', 'Placebo']</t>
@@ -14895,7 +14901,7 @@
     <t>['Placebo Plus Best Supportive Care (BSC)', 'Afatinib 50 mg/Day Plus Best Supportive Care (BSC)']</t>
   </si>
   <si>
-    <t>['rMenB Lot2', 'rMenB Lot3']</t>
+    <t>['rMenB Lot1', 'rMenB Lot2']</t>
   </si>
   <si>
     <t>['Placebo', 'ACT-064992 10 mg']</t>
@@ -14904,7 +14910,7 @@
     <t>['Methylnaltrexone Bromide', 'Placebo']</t>
   </si>
   <si>
-    <t>['THC Alone', 'Placebo']</t>
+    <t>['Sativex', 'Placebo']</t>
   </si>
   <si>
     <t>['Sunitinib and Prednisone', 'Placebo and Prednisone']</t>
@@ -14922,7 +14928,7 @@
     <t>['Arm A: Pemetrexed + Cisplatin and TRT', 'Arm B: Etoposide + Cisplatin and TRT']</t>
   </si>
   <si>
-    <t>['Lenalidomide and Low-Dose Dexamethasone (Rd)', 'Melphalan + Prednisone + Thalidomide (MPT)']</t>
+    <t>['Lenalidomide and Dexamethasone Rd18', 'Melphalan + Prednisone + Thalidomide (MPT)']</t>
   </si>
   <si>
     <t>['Sunitinib', 'Sorafenib']</t>
@@ -14931,10 +14937,7 @@
     <t>['Radium-223 Dichloride (Xofigo, BAY88-8223)', 'Placebo']</t>
   </si>
   <si>
-    <t>['Prasugrel: &lt;75 Years of Age', 'Clopidogrel: &lt;75 Years of Age']</t>
-  </si>
-  <si>
-    <t>['Cohort I - 1. Placebo + PEG + RBV', 'Cohort I - 3. Boceprevir + PEG + RBV - 44 Weeks']</t>
+    <t>['Cohort II - 1. Placebo + PEG + RBV', 'Cohort II - 2. Boceprevir + PEG + RBV - 24 Weeks (RGT)']</t>
   </si>
   <si>
     <t>['Placebo', 'Alvimopan 12 mg']</t>
@@ -14949,13 +14952,13 @@
     <t>['R-CHOP', 'VcR-CAP']</t>
   </si>
   <si>
-    <t>['Cladribine 5.25 mg/kg (ITP)', 'Placebo (ITP)']</t>
+    <t>['Cladribine 3.5 mg/kg (ITP)', 'Placebo (ITP)']</t>
   </si>
   <si>
     <t>['FTY720 0.5 mg to 0.5 mg', 'Placebo']</t>
   </si>
   <si>
-    <t>['Sitagliptin', 'Placebo/Sitagliptin (Baseline Through 26 Weeks)']</t>
+    <t>['0.75 mg LY2189265', 'Sitagliptin']</t>
   </si>
   <si>
     <t>['VIABAHN Treatment Group', 'PTA Treatment Group']</t>
@@ -14988,24 +14991,21 @@
     <t>['High Dose Edoxaban/Placebo Warfarin', 'Warfarin/Placebo Edoxaban']</t>
   </si>
   <si>
+    <t>['Placebo', 'Olo 10 mcg qd']</t>
+  </si>
+  <si>
+    <t>['Nilotinib', 'Imatinib']</t>
+  </si>
+  <si>
+    <t>['Etoricoxib 120 mg', 'Placebo']</t>
+  </si>
+  <si>
+    <t>['Pemetrexed + Cisplatin Followed by Maintenance Pemetrexed', 'Pemetrexed + Cisplatin Followed by Placebo']</t>
+  </si>
+  <si>
     <t>['Placebo', 'Olo 5 mcg qd']</t>
   </si>
   <si>
-    <t>['Nilotinib', 'Imatinib']</t>
-  </si>
-  <si>
-    <t>['Etoricoxib 120 mg', 'Placebo']</t>
-  </si>
-  <si>
-    <t>['Pemetrexed + Cisplatin Followed by Maintenance Pemetrexed', 'Pemetrexed + Cisplatin Followed by Placebo']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'Form 12 mcg']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'Olo 10 mcg qd']</t>
-  </si>
-  <si>
     <t>['Placebo', 'Darapladib']</t>
   </si>
   <si>
@@ -15027,10 +15027,10 @@
     <t>['Dexmedetomidine', 'Saline']</t>
   </si>
   <si>
-    <t>['Tanezumab 10 mg (Naproxen Exposure)', 'Naproxen 500 mg']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'Rivaroxaban 2.5 mg Bid']</t>
+    <t>['Tanezumab 10 mg (Celecoxib Exposure)', 'Tanezumab 10 mg + Celecoxib 100 mg']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Rivaroxaban 5 mg Bid']</t>
   </si>
   <si>
     <t>['Wire (Control)', 'Plates']</t>
@@ -15042,13 +15042,13 @@
     <t>['PROMUS', 'PROMUS Element']</t>
   </si>
   <si>
-    <t>['Sitaxsentan (2 mg/kg)', 'Placebo']</t>
-  </si>
-  <si>
-    <t>['Sitagliptin 100 mg Plus Metformin', 'Albiglutide 30 mg Plus Metformin']</t>
-  </si>
-  <si>
-    <t>['10Pn3+1-6W-6M/043+053 Group', 'Ctrl-6W-6M/043+053 Group']</t>
+    <t>['Sitaxsentan (1 mg/kg)', 'Placebo']</t>
+  </si>
+  <si>
+    <t>['Glimepiride 2 mg Plus Metformin', 'Albiglutide 30 mg Plus Metformin']</t>
+  </si>
+  <si>
+    <t>['10Pn2+1-6W-6M/043+053 Group', 'Ctrl-6W-6M/043+053 Group']</t>
   </si>
   <si>
     <t>['Arm 1: 5-fluorouracil', 'Arm 2: Placebo, Vehicle Control']</t>
@@ -15072,7 +15072,7 @@
     <t>['Olesoxime', 'Placebo Comparator']</t>
   </si>
   <si>
-    <t>['Placebo', 'CAT-354 600 mg']</t>
+    <t>['Placebo', 'CAT-354 150 mg']</t>
   </si>
   <si>
     <t>['Everolimus + Paclitaxel + Trastuzumab', 'Placebo + Paclitaxel + Trastuzumab']</t>
@@ -15087,7 +15087,7 @@
     <t>['Peripheral Nerve Group', 'Depodur Group']</t>
   </si>
   <si>
-    <t>['Placebo, Then SAM-531', 'SAM-531 (1.5 mg)']</t>
+    <t>['Placebo, Then SAM-531', 'Donepezil']</t>
   </si>
   <si>
     <t>['Nintedanib + mFolfox6', 'Bevacizumab + mFolfox6']</t>
@@ -15096,13 +15096,13 @@
     <t>['Investigational Treatment (Dermagraft Plus Standard-of-Care)', 'Control (Standard-of-Care)']</t>
   </si>
   <si>
-    <t>['Placebo (P)', 'A and B Combined (C)']</t>
+    <t>['Placebo (P)', 'Losmapimod 15 mg Followed by Losmapimod 7.5 mg (B)']</t>
   </si>
   <si>
     <t>['Neratinib + Paclitaxel', 'Trastuzumab + Paclitaxel']</t>
   </si>
   <si>
-    <t>['Axitinib (Second-line Participants)', 'Sorafenib (Second-line Participants)']</t>
+    <t>['Axitinib (First-line Participants)', 'Sorafenib (First-line Participants)']</t>
   </si>
   <si>
     <t>['DI (Degarelix Intermittent)', 'Total Continuous']</t>
@@ -15117,7 +15117,7 @@
     <t>['Intravitreal Aflibercept Injection (EYLEA, VEGF Trap-Eye)', 'Sham Treatment']</t>
   </si>
   <si>
-    <t>['Bevacizumab + RT + Temozolomide', 'Placebo + RT + Temozolomide']</t>
+    <t>['Bevacizumab + RT +Temozolomide', 'Placebo + RT + Temozolomide']</t>
   </si>
   <si>
     <t>['Pemetrexed + Carboplatin', 'Paclitaxel + Carboplatin + Bevacizumab']</t>
@@ -15144,55 +15144,58 @@
     <t>['Placebo', 'Darapladib 160 mg']</t>
   </si>
   <si>
-    <t>['Combivent Respimat', 'Atrovent + Albuterol Aerosols']</t>
+    <t>['Combivent Respimat', 'Combivent Inhalation Aerosol']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Canagliflozin 100 mg']</t>
+  </si>
+  <si>
+    <t>['Fluoropyrimidine, Cisplatin', 'Trastuzumab, Fluoropyrimidine, Cisplatin']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Aclidinium Bromide 400 Î¼g']</t>
+  </si>
+  <si>
+    <t>['Cohort 3-POSIMIR', 'Cohort 3-Placebo']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Ipilimumab']</t>
+  </si>
+  <si>
+    <t>['Postpartum Arm A (Maternal Prophylaxis)', 'Postpartum Arm B (Infant Prophylaxis)']</t>
+  </si>
+  <si>
+    <t>['Part B: SAR 200 mg q2w', 'Part B: Placebo q2w']</t>
+  </si>
+  <si>
+    <t>['Interferon Beta-1a', 'Daclizumab High Yield Process']</t>
+  </si>
+  <si>
+    <t>['Early Start: GA 40 mg / GA 40 mg', 'Delayed Start: Placebo / GA 40 mg']</t>
+  </si>
+  <si>
+    <t>['Azacitidine (AZA)', 'Conventional Care Regimens (CCR)']</t>
+  </si>
+  <si>
+    <t>['Ofa + Benda (Arm A)', 'Benda (Arm B)']</t>
+  </si>
+  <si>
+    <t>['Afatinib Plus Paclitaxel (Part B)', 'Investigators Choice of Chemotherapy (Part B)']</t>
+  </si>
+  <si>
+    <t>['Bivalirudin', 'Standard of Care: Heparins With Optional GPI']</t>
+  </si>
+  <si>
+    <t>['Azithromycin + Chloroquine', 'Sulfadoxine + Pyrimethamine']</t>
+  </si>
+  <si>
+    <t>['Stribild', 'ATV/r + FTC/TDF']</t>
   </si>
   <si>
     <t>['Placebo', 'Canagliflozin 300 mg']</t>
   </si>
   <si>
-    <t>['Fluoropyrimidine, Cisplatin', 'Trastuzumab, Fluoropyrimidine, Cisplatin']</t>
-  </si>
-  <si>
-    <t>['Placebo - Aclidinium Bromide 400 Î¼g', 'Aclidinium Bromide 400 Î¼g - Aclidinium Bromide 400 Î¼g']</t>
-  </si>
-  <si>
-    <t>['Cohort 2-POSIMIR', 'Cohort 2-Bupivacaine HCl']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'Ipilimumab']</t>
-  </si>
-  <si>
-    <t>['Antepartum Arm A', 'Antepartum Arm B']</t>
-  </si>
-  <si>
-    <t>['Part A: SAR 200 mg q2w', 'Part A: Placebo qw']</t>
-  </si>
-  <si>
-    <t>['Interferon Beta-1a', 'Daclizumab High Yield Process']</t>
-  </si>
-  <si>
-    <t>['Early Start: GA 40 mg / GA 40 mg', 'Delayed Start: Placebo / GA 40 mg']</t>
-  </si>
-  <si>
-    <t>['Azacitidine (AZA)', 'Conventional Care Regimen']</t>
-  </si>
-  <si>
-    <t>['Ofa + Benda (Arm A)', 'Benda (Arm B)']</t>
-  </si>
-  <si>
-    <t>['Afatinib Plus Paclitaxel (Part B)', 'Investigators Choice of Chemotherapy (Part B)']</t>
-  </si>
-  <si>
-    <t>['Bivalirudin', 'Standard of Care: Heparins With Optional GPI']</t>
-  </si>
-  <si>
-    <t>['Azithromycin + Chloroquine', 'Sulfadoxine + Pyrimethamine']</t>
-  </si>
-  <si>
-    <t>['Stribild', 'ATV/r + FTC/TDF']</t>
-  </si>
-  <si>
-    <t>['Placebo and 60-mg Prasugrel', '600-mg Clopidogrel and 60-mg Prasugrel']</t>
+    <t>['Placebo and 60-mg Prasugrel', '600-mg Clopidogrel and 30-mg Prasugrel']</t>
   </si>
   <si>
     <t>['Telcagepant 140 mg', 'Placebo']</t>
@@ -15219,25 +15222,25 @@
     <t>['Placebo', 'Lixisenatide']</t>
   </si>
   <si>
-    <t>['Cohort A-2 (Roxadustat 1.5 mg/kg TIW)', 'Cohort A (Epoetin Alfa)']</t>
+    <t>['Cohort A-1 (Roxadustat 1.0 mg/kg TIW)', 'Cohort A (Epoetin Alfa)']</t>
   </si>
   <si>
     <t>['Preladenant 10 mg', 'Placebo']</t>
   </si>
   <si>
-    <t>['Lapatinib+AI', 'Trastuzumab+AI']</t>
-  </si>
-  <si>
-    <t>['Gem + Carb or Cis (Squamous)', 'Ram + Gem + Carb or Cis (Squamous)']</t>
-  </si>
-  <si>
-    <t>['GSK1437173A 60-69 YOA Group', 'Placebo 60-69 YOA Group']</t>
-  </si>
-  <si>
-    <t>['Zoster-022/006 Pooled GSK1437173A &gt;=80YOA Group', 'Zoster-022/006 Pooled Placebo &gt;=80YOA Group']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'Empagliflozin 25 mg']</t>
+    <t>['Lapatinib+Trastuzumab+Al', 'Trastuzumab+AI']</t>
+  </si>
+  <si>
+    <t>['Pem + Carb or Cis (Non-Squamous)', 'Ram + Pem + Carb or Cis (Non-Squamous)']</t>
+  </si>
+  <si>
+    <t>['GSK1437173A Over 70 YOA Group', 'Placebo Over 70 YOA Group']</t>
+  </si>
+  <si>
+    <t>['Zoster-022 GSK1437173A 70-79YOA Group', 'Zoster-022 Placebo 70-79YOA Group']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Empagliflozin10 mg']</t>
   </si>
   <si>
     <t>['Liraglutide', 'Placebo']</t>
@@ -15261,16 +15264,16 @@
     <t>['Placebo + Prednisone', 'Orteronel + Prednisone']</t>
   </si>
   <si>
-    <t>['Lenalidomide', 'Investigators Choice (IC)']</t>
-  </si>
-  <si>
-    <t>['FOSTA 100 MG BID PO', 'PLACEBO PO']</t>
+    <t>['Lenalidomide', 'Investigators Choice (Control Arm)']</t>
+  </si>
+  <si>
+    <t>['FOSTA 100 MG BID (4 WKS) THEN 150 MG QD PO', 'PLACEBO PO']</t>
   </si>
   <si>
     <t>['10PP-HD/Infanrix Hexa Group', 'Synflorix/Infanrix Hexa Group']</t>
   </si>
   <si>
-    <t>['Placebo', 'Empa 25mg']</t>
+    <t>['Placebo', 'Empa 10mg']</t>
   </si>
   <si>
     <t>['Phase 2: U3-1287 9 mg/kg + Erlotinib', 'Phase 2: Placebo + Erlotinib']</t>
@@ -15279,13 +15282,13 @@
     <t>['Ticagrelor 90 mg', 'Placebo']</t>
   </si>
   <si>
-    <t>['IV Zanamivir 300 mg', 'IV Zanamivir 600 mg']</t>
+    <t>['IV Zanamivir 600 mg', 'Oral Oseltamivir 75 mg']</t>
   </si>
   <si>
     <t>['Lenalidomide + Dexamethasone + Elotuzumab', 'Lenalidomide + Dexamethasone']</t>
   </si>
   <si>
-    <t>['MK-6072 + SOC', 'MK-3415A + SOC']</t>
+    <t>['MK-3415A + SOC', 'Placebo + SOC']</t>
   </si>
   <si>
     <t>['Tivantinib and Erlotinib', 'Placebo and Erlotinib']</t>
@@ -15303,7 +15306,7 @@
     <t>['Liposomal Amphotericin B', 'Placebo']</t>
   </si>
   <si>
-    <t>['Liraglutide 3.0 mg (56-Week)', 'Liraglutide Placebo (56-Week)']</t>
+    <t>['Liraglutide 3.0 mg (160-Week)', 'Liraglutide Placebo (160-Week)']</t>
   </si>
   <si>
     <t>['Placebo', 'Dexpramipexole']</t>
@@ -15312,13 +15315,13 @@
     <t>['TMC435 150mg 12Wks PR24/48', 'PBO 12Wks PR48']</t>
   </si>
   <si>
-    <t>['Placebo', 'Sifalimumab 600 mg']</t>
+    <t>['Placebo', 'Sifalimumab 200 Milligram (mg)']</t>
   </si>
   <si>
     <t>['Ipilimumab With Paclitaxel/Carboplatin', 'Placebo With Paclitaxel/Carboplatin']</t>
   </si>
   <si>
-    <t>['BI 10773 Low (Pioglitazone)', 'Placebo (Pioglitazone)']</t>
+    <t>['BI 10773 High (Drug Naive)', 'Sitagliptin 100mg (Drug Naive)']</t>
   </si>
   <si>
     <t>['Dutasteride Plus Tamsulosin', 'Watchful Waiting All: Escalated Yes and No']</t>
@@ -15330,10 +15333,10 @@
     <t>['Pomalidomide Plus Low-Dose Dexamethasone', 'High-Dose Dexamethasone']</t>
   </si>
   <si>
-    <t>['UMEC 62.5 Âµg QD', 'UMEC/VI 62.5/25 Âµg QD']</t>
-  </si>
-  <si>
-    <t>['Fluticasone Furoate 100 Âµg', 'Fluticasone Furoate/Vilanterol 100/25 Âµg']</t>
+    <t>['Placebo', 'UMEC/VI 62.5/25 Âµg QD']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Fluticasone Furoate/Vilanterol 100/25 Âµg']</t>
   </si>
   <si>
     <t>['UMEC 125 Âµg QD', 'UMEC/VI 125/25 QD']</t>
@@ -15342,7 +15345,7 @@
     <t>['FSC 250/50 Âµg BID', 'FF/VI 100/25 Âµg QD']</t>
   </si>
   <si>
-    <t>['Group I', 'Group IV']</t>
+    <t>['Group II', 'Group IV']</t>
   </si>
   <si>
     <t>['Late Erlotinib', 'Early Erlotinib']</t>
@@ -15360,13 +15363,13 @@
     <t>['Placebo', 'Nintedanib 150 mg Bid']</t>
   </si>
   <si>
-    <t>['Placebo QD', 'FF/VI 100/25 Âµg QD']</t>
+    <t>['Placebo QD', 'VI 25 Âµg QD']</t>
   </si>
   <si>
     <t>['V419', 'Control']</t>
   </si>
   <si>
-    <t>['Placebo', 'BA058 80 mcg (Abaloparatide)']</t>
+    <t>['BA058 80 mcg (Abaloparatide)', 'Teriparatide']</t>
   </si>
   <si>
     <t>['Afatinib (BIBW 2992)', 'Placebo']</t>
@@ -15378,19 +15381,19 @@
     <t>['TachoSilÂ®', 'Current Practice Group']</t>
   </si>
   <si>
-    <t>['Relapser &amp; Partial: Placebo', 'Relapser &amp; Partial: Faldaprevir 24 Weeks']</t>
+    <t>['Relapser &amp; Partial: Placebo', 'Relapser &amp; Partial: Faldaprevir 12 Weeks']</t>
   </si>
   <si>
     <t>['Brisdelle (Paroxetine Mesylate) 7.5 mg Capsules', 'Placebo Capsules']</t>
   </si>
   <si>
-    <t>['Placebo-Placebo', 'CR845-CR845']</t>
+    <t>['Placebo-Placebo', 'Placebo-CR845']</t>
   </si>
   <si>
     <t>['IV Insulin Drip With Target Glucose 80 mg/dL - 130 mg/dL', 'Sub Q Insulin to Keep Glucose Less Than 180 mg/dL']</t>
   </si>
   <si>
-    <t>['Placebo Subcutaneously (SC)', 'Ustekinumab 90 Milligram (mg) SC Every 12 Weeks (q12w)']</t>
+    <t>['Placebo Subcutaneously (SC)', 'Ustekinumab 90 mg SC q8w']</t>
   </si>
   <si>
     <t>['Placebo', 'Dulaglutide']</t>
@@ -15405,13 +15408,13 @@
     <t>['Ruxolitinib', 'Placebo']</t>
   </si>
   <si>
-    <t>['Tio+Olo FDC (2.5/5 Î¼g)', 'Tio+Olo FDC (5/5 Î¼g)']</t>
-  </si>
-  <si>
-    <t>['Tiotropium (5 Î¼g)', 'Tio+Olo FDC (5/5 Î¼g)']</t>
-  </si>
-  <si>
-    <t>['Aclidinium/Formoterol 400/12 Î¼g', 'Aclidinium 400 Î¼g']</t>
+    <t>['Tiotropium (2.5 Î¼g)', 'Tio+Olo FDC (5/5 Î¼g)']</t>
+  </si>
+  <si>
+    <t>['Olodaterol (5 Î¼g)', 'Tio+Olo FDC (2.5/5 Î¼g)']</t>
+  </si>
+  <si>
+    <t>['Aclidinium/Formoterol 400/6 Î¼g', 'Placebo']</t>
   </si>
   <si>
     <t>['Placebo', 'Aripiprazole']</t>
@@ -15420,7 +15423,7 @@
     <t>['Palonosetron 10 mcg/kg', 'Ondansetron']</t>
   </si>
   <si>
-    <t>['Infant Chloroquine IPT', 'Infant SP IPT']</t>
+    <t>['Maternal Chloroquine Prophylaxis', 'Maternal SP IPT']</t>
   </si>
   <si>
     <t>['Placebo', 'Roflumilast']</t>
@@ -15435,10 +15438,10 @@
     <t>['Placebo', 'Tadalafil']</t>
   </si>
   <si>
-    <t>['Placebo', 'Aclidinium/Formoterol 400/6 Î¼g']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'Ramelteon SL 0.4 mg']</t>
+    <t>['Aclidinium/Formoterol 400/12 Î¼g', 'Formoterol 12 Î¼g']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Ramelteon SL 0.1 mg']</t>
   </si>
   <si>
     <t>['Epoetin Hospira', 'Epogen']</t>
@@ -15480,7 +15483,7 @@
     <t>['Sufentanil NanoTab PCA System/15 mcg', 'Morphine IV PCA']</t>
   </si>
   <si>
-    <t>['AIN457 150 mg', 'Placebo']</t>
+    <t>['AIN457 300 mg', 'Placebo']</t>
   </si>
   <si>
     <t>['UT-15C', 'Placebo']</t>
@@ -15525,7 +15528,7 @@
     <t>['Placebo', 'Alirocumab 75 mg/Up to 150 mg Q2W']</t>
   </si>
   <si>
-    <t>['Aflibercept', 'Bevacizumab']</t>
+    <t>['Aflibercept', 'Ranibizumab']</t>
   </si>
   <si>
     <t>['FF/VI 100/25 Âµg OD', 'TIO 18 Âµg OD']</t>
@@ -15534,16 +15537,16 @@
     <t>['Alendronate/Alendronate', 'Romosozumab/Alendronate']</t>
   </si>
   <si>
-    <t>['Low Dose Acetaminophen', 'Placebo']</t>
+    <t>['High Dose Acetaminophen', 'Placebo']</t>
   </si>
   <si>
     <t>['Aprepitant Regimen', 'Control Regimen']</t>
   </si>
   <si>
-    <t>['Placebo', '80 mg Ixekizumab Dosing Regimen 1 (Q2W)']</t>
-  </si>
-  <si>
-    <t>['Secukinumab 150 mg', 'Placebo']</t>
+    <t>['Placebo', '50 mg Etanercept']</t>
+  </si>
+  <si>
+    <t>['Secukinumab 75 mg', 'Placebo']</t>
   </si>
   <si>
     <t>['Bivalirudin', 'Unfractionated Heparin (UFH)']</t>
@@ -15582,7 +15585,7 @@
     <t>['A+AVD', 'ABVD']</t>
   </si>
   <si>
-    <t>['Semaglutide 0.5 mg', 'Placebo']</t>
+    <t>['Semaglutide', 'Placebo']</t>
   </si>
   <si>
     <t>['IV Sildenafil', 'Placebo']</t>
@@ -15600,7 +15603,7 @@
     <t>['Dapa 10 mg', 'Placebo']</t>
   </si>
   <si>
-    <t>['Aprepitant Dose 3: Equivalent to 10 mg in Adults', 'Ondansetron']</t>
+    <t>['Aprepitant Dose 2: Equivalent to 40 mg in Adults', 'Ondansetron']</t>
   </si>
   <si>
     <t>['Ticagrelor 90 mg bd', 'Clopidogrel 75 mg od']</t>
@@ -15636,7 +15639,7 @@
     <t>['QVA149', 'Long Acting B2 Agonist (LABA) and Inhaled Corticosteroid (ICS)']</t>
   </si>
   <si>
-    <t>['Everolimus 10 mg + Exemestane 25 mg', 'Capecitabine 1250 mg/m2']</t>
+    <t>['Everolimus 10 mg + Exemestane 25 mg', 'Everolimus 10 mg']</t>
   </si>
   <si>
     <t>['Placebo (Double-blind Treatment Period)', 'Hydrocodone ER (Double-blind Treatment Period)']</t>
@@ -15666,7 +15669,7 @@
     <t>['Serelaxin (RLX030)', 'Placebo']</t>
   </si>
   <si>
-    <t>['Combination Therapy (Cohort B): Placebo + Pirfenidone', 'Combination Therapy (Cohort B): Lebrikizumab + Pirfenidone']</t>
+    <t>['Monotherapy (Cohort A): Placebo', 'Monotherapy (Cohort A): Lebrikizumab']</t>
   </si>
   <si>
     <t>['Placebo', 'ASP0113']</t>
@@ -15681,7 +15684,7 @@
     <t>['ABP 980', 'Trastuzumab']</t>
   </si>
   <si>
-    <t>['Pembrolizumab 2 mg/kg', 'Docetaxel 75 mg/m^2']</t>
+    <t>['Pembrolizumab 10 mg/kg', 'Docetaxel 75 mg/m^2']</t>
   </si>
   <si>
     <t>['Placebo', 'Nintedanib']</t>
@@ -15714,7 +15717,7 @@
     <t>['Bucindolol Hydrochloride', 'Metoprolol Succinate']</t>
   </si>
   <si>
-    <t>['Solifenacin 5 mg', 'Solifenacin 5 mg + Mirabegron 50 mg']</t>
+    <t>['Mirabegron 50 mg', 'Solifenacin 5 mg + Mirabegron 50 mg']</t>
   </si>
   <si>
     <t>['Placebo', 'Bococizumab (PF-04950615)']</t>
@@ -15765,9 +15768,6 @@
     <t>['Radium-223 Dichloride + Abi/Pred', 'Placebo + Abi/Pred']</t>
   </si>
   <si>
-    <t>['Placebo', 'Canagliflozin 100 mg']</t>
-  </si>
-  <si>
     <t>['Ceftolozane/Tazobactam', 'Meropenem']</t>
   </si>
   <si>
@@ -15780,10 +15780,10 @@
     <t>['Selinexor 60 mg (PV &gt;=5) (Equivalent to 35 mg/m^2)', "Physician's Choice 2 (PV &gt;=5)"]</t>
   </si>
   <si>
-    <t>['MP: Placebo', 'MP: IncobotulinumtoxinA (Xeomin) (100 Units)']</t>
-  </si>
-  <si>
-    <t>['Tofacitinib 5 mg BID', 'Tofacitinib 10 mg BID']</t>
+    <t>['MP: Placebo', 'MP: IncobotulinumtoxinA (Xeomin) (75 Units)']</t>
+  </si>
+  <si>
+    <t>['All Tofacitinib', 'TNFi']</t>
   </si>
   <si>
     <t>['Apixaban', 'Parenteral Heparin/Oral Vitamin K Antagonist (Usual Care)']</t>
@@ -15807,10 +15807,10 @@
     <t>['CF102', 'Placebo Tablets of CF102']</t>
   </si>
   <si>
-    <t>['Benralizumab 100 mg', 'Placebo']</t>
-  </si>
-  <si>
-    <t>['Febuxostat IR 40 mg', 'Febuxostat XR 40 mg']</t>
+    <t>['Benralizumab 30 mg', 'Placebo']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'Febuxostat XR 80 mg']</t>
   </si>
   <si>
     <t>['Pembrolizumab', 'SOC Chemotherapy']</t>
@@ -15822,7 +15822,7 @@
     <t>['Dabigatran Etexilate 110mg', 'Warfarin']</t>
   </si>
   <si>
-    <t>['Selonsertib 6 mg', 'Placebo']</t>
+    <t>['Selonsertib 18 mg', 'Placebo']</t>
   </si>
   <si>
     <t>['Placebo', '1.6 mg/kg (1000 U/kg) recAP']</t>
@@ -15861,7 +15861,7 @@
     <t>['Placebo', 'Lanabecestat 20 mg']</t>
   </si>
   <si>
-    <t>['Sham Comparator', 'Lampalizumab Q6W']</t>
+    <t>['Sham Comparator', 'Lampalizumab Q4W']</t>
   </si>
   <si>
     <t>["Investigator's Choice Chemotherapy", 'Veliparib + Carboplatin + Paclitaxel']</t>
@@ -15873,10 +15873,10 @@
     <t>['Roxadustat', 'ESA (Erythropoiesis-Stimulating Agent)']</t>
   </si>
   <si>
-    <t>['Phase 2: Veliparib + Carboplatin/Etoposide -&gt; Veliparib', 'Phase 2: Placebo + Carboplatin/Etoposide -&gt; Placebo']</t>
-  </si>
-  <si>
-    <t>['Placebo', 'SD-809 36 mg/Day']</t>
+    <t>['Phase 2: Veliparib + Carboplatin/Etoposide -&gt; Placebo', 'Phase 2: Placebo + Carboplatin/Etoposide -&gt; Placebo']</t>
+  </si>
+  <si>
+    <t>['Placebo', 'SD-809 12 mg/Day']</t>
   </si>
   <si>
     <t>['Placebo + Oseltamivir', 'MHAA4549A 8400 mg + Oseltamivir']</t>
@@ -15891,7 +15891,7 @@
     <t>['IC2/3 Chemotherapy', 'IC2/3 Atezolizumab']</t>
   </si>
   <si>
-    <t>['Brolucizumab 3 mg', 'Aflibercept 2 mg']</t>
+    <t>['Brolucizumab 6 mg', 'Aflibercept 2 mg']</t>
   </si>
   <si>
     <t>['NEOD001 (24 mg/kg) + Standard of Care', 'Placebo + Standard of Care']</t>
@@ -15900,7 +15900,7 @@
     <t>['Cefiderocol', 'Imipenem/Cilastatin']</t>
   </si>
   <si>
-    <t>['BYM338 70 mg', 'Placebo']</t>
+    <t>['BYM338 210 mg', 'Placebo']</t>
   </si>
   <si>
     <t>['LJPC-501 (Angiotensin II)', 'Placebo (0.9% Sodium Chloride Solution)']</t>
@@ -15909,7 +15909,7 @@
     <t>['SGI-110 (Guadecitabine)', 'Treatment Choice']</t>
   </si>
   <si>
-    <t>['Placebo', 'Relamorelin 30 Î¼g']</t>
+    <t>['Placebo', 'Relamorelin 10 Î¼g']</t>
   </si>
   <si>
     <t>['PF-06439535', 'Bevacizumab-EU']</t>
@@ -15918,13 +15918,13 @@
     <t>['Arm A (Atezolizumab+Nab-Paclitaxel+Carboplatin)', 'Arm B (Nab-Paclitaxel+Carboplatin)']</t>
   </si>
   <si>
-    <t>['Durvalumab + Tremelimumab', 'Standard of Care (SoC)']</t>
+    <t>['Durvalumab', 'Standard of Care (SoC)']</t>
   </si>
   <si>
     <t>['Orsiro Sirolimus Coronary Stent System', 'Xience Everolimus Coronary Stent System']</t>
   </si>
   <si>
-    <t>['Placebo (for Dupilumab 200 mg) q2w', 'Dupilumab 200 mg q2w']</t>
+    <t>['Placebo (for Dupilumab 300 mg) q2w', 'Dupilumab 300 mg q2w']</t>
   </si>
   <si>
     <t>['Lurbinectedin', 'Control (PLD or Topotecan)']</t>
@@ -15933,9 +15933,6 @@
     <t>['Gilteritinib', 'Salvage Chemotherapy']</t>
   </si>
   <si>
-    <t>['Brolucizumab 6 mg', 'Aflibercept 2 mg']</t>
-  </si>
-  <si>
     <t>['Lutonix DCB', 'Standard Balloon Angioplasty Catheter']</t>
   </si>
   <si>
@@ -15960,7 +15957,7 @@
     <t>['Group A', 'Group B']</t>
   </si>
   <si>
-    <t>['Arm A: Ranibizumab, 0.5 mg Every 4 Weeks (Q4W)', 'Arm C: Faricimab, 6 mg Q4W']</t>
+    <t>['Arm A: Ranibizumab, 0.5 mg Every 4 Weeks (Q4W)', 'Arm D: Faricimab, 6 mg Every 4-8 Weeks']</t>
   </si>
   <si>
     <t>['IMI/REL', 'PIP/TAZ']</t>
@@ -15969,7 +15966,7 @@
     <t>['Pembrolizumab Monotherapy (Pembro Mono)', 'Placebo + SOC Chemotherapy (SOC)']</t>
   </si>
   <si>
-    <t>['Double-blind, Placebo-controlled: Group 1 - Placebo', 'Double-blind, Placebo-controlled: Group 2 - 250 mg Tirasemtiv']</t>
+    <t>['Double-blind, Placebo-controlled: Group 1 - Placebo', 'Double-blind, Placebo-controlled: Group 4 - 500 mg Tirasemtiv']</t>
   </si>
   <si>
     <t>['Palbociclib + Cetuximab', 'Placebo + Cetuximab']</t>
@@ -15981,7 +15978,7 @@
     <t>['Rivaroxaban 2.5 mg Bid + Aspirin 100 mg od', 'Rivaroxaban Placebo Bid + Aspirin 100 mg od']</t>
   </si>
   <si>
-    <t>['Combination Therapy', 'Standard of Care']</t>
+    <t>['Combination Therapy', 'Monotherapy']</t>
   </si>
   <si>
     <t>['Finerenone', 'Placebo']</t>
@@ -16038,7 +16035,7 @@
     <t>['Patritumab', 'Placebo']</t>
   </si>
   <si>
-    <t>['Semaglutide 0.5 mg', 'Dulaglutide 0.75 mg']</t>
+    <t>['Semaglutide 1.0 mg', 'Dulaglutide 1.5 mg']</t>
   </si>
   <si>
     <t>['Vadadustat', 'Darbepoetin Alfa']</t>
@@ -16050,7 +16047,7 @@
     <t>['Placebo', 'VX-210 9 mg']</t>
   </si>
   <si>
-    <t>['150 mg Abemaciclib + 8 mg/kg Trastuzumab + 500 mg Fulvestrant', '8 mg/kg Trastuzumab + Standard of Care Chemotherapy']</t>
+    <t>['150 mg Abemaciclib + 8 mg/kg Trastuzumab', '8 mg/kg Trastuzumab + Standard of Care Chemotherapy']</t>
   </si>
   <si>
     <t>['Enzalutamide + Androgen Deprivation Therapy (ADT)', 'Placebo + Androgen Deprivation Therapy (ADT)']</t>
@@ -16068,13 +16065,13 @@
     <t>['Placebo', 'MEDI3902 1500 mg']</t>
   </si>
   <si>
-    <t>['BCT197 Low Dose Regimen', 'Placebo']</t>
+    <t>['BCT197 High Dose Regimen', 'BCT197 Low Dose Regimen']</t>
   </si>
   <si>
     <t>['Placebo', 'Tanezumab 5 mg']</t>
   </si>
   <si>
-    <t>['REGN910-3 (6 mg:2 mg) Q4 to REGN910-3 (6 mg:2 mg) Q8', 'Aflibercept 2 mg Q4 to Aflibercept 2 mg Q8']</t>
+    <t>['REGN910-3 (6 mg:2 mg)', 'Aflibercept 2 mg']</t>
   </si>
   <si>
     <t>['Ezetimibe 10 mg', 'Alirocumab 75 mg Q2W/up to 150 mg Q2W']</t>
@@ -16083,7 +16080,7 @@
     <t>['Arm 1A (PPV-23)', 'Arm 1B (PCV-10)']</t>
   </si>
   <si>
-    <t>['Sham Treatment', 'IAI 2 mg Groups Combined (2Q16 &amp; 2Q8)']</t>
+    <t>['Sham Treatment', 'Intravitreal Aflibercept Injection (IAI) 2Q16']</t>
   </si>
   <si>
     <t>['FF/UMEC/VI 100/62.5/25', 'FF/VI 100/25 + UMEC 62.5']</t>
@@ -16119,13 +16116,13 @@
     <t>['FKB238 / Paclitaxel / Carboplatin', 'Avastin / Paclitaxel / Carboplatin']</t>
   </si>
   <si>
-    <t>['Lenvatinib 20 mg Plus Pembrolizumab 200 mg', 'Sunitinib 50 mg']</t>
+    <t>['Lenvatinib 18 mg Plus Everolimus 5 mg', 'Sunitinib 50 mg']</t>
   </si>
   <si>
     <t>['Part 2: Pembrolizumab + Chemotherapy', 'Part 2: Placebo + Chemotherapy']</t>
   </si>
   <si>
-    <t>['Group A: aH5N1c Lot #1', 'Group C: aH5N1c Lot #3']</t>
+    <t>['Group A: aH5N1c Lot #1', 'Group B: aH5N1c Lot #2']</t>
   </si>
   <si>
     <t>['Vericiguat', 'Placebo']</t>
@@ -16167,7 +16164,7 @@
     <t>['150 mg Nintedanib', 'Placebo']</t>
   </si>
   <si>
-    <t>['Placebo - Part II', 'BMS-986231 12 Âµg/kg/Min - Part II']</t>
+    <t>['Placebo - Part II (Japan Cohort)', 'BMS-986231 12 Âµg/kg/Min - Part II (Japan Cohort)']</t>
   </si>
   <si>
     <t>['Subset AR-105 Study2', 'Subset Placebo Study2']</t>
@@ -16200,7 +16197,7 @@
     <t>['Phase 2: Olaratumab + Nab-paclitaxel + Gemcitabine', 'Phase 2: Placebo + Nab-paclitaxel + Gemcitabine']</t>
   </si>
   <si>
-    <t>['Placebo', 'Nemolizumab (10 mg)']</t>
+    <t>['Placebo', 'Nemolizumab (90 mg)']</t>
   </si>
   <si>
     <t>['B/F/TAF', 'DTG + F/TAF']</t>
@@ -16221,22 +16218,25 @@
     <t>['Kd - Carfilzomib and Dexamethasone', 'KdD - Carfilzomib, Dexamethasone and Daratumumab']</t>
   </si>
   <si>
-    <t>['MRSA - CF-301', 'MRSA - Placebo']</t>
+    <t>['cBSI/R-IE - CF-301', 'cBSI/R-IE - Placebo']</t>
   </si>
   <si>
     <t>['Pembrolizumab + SOC', 'Placebo + SOC']</t>
   </si>
   <si>
+    <t>['Placebo', 'Sotagliflozin 200 mg']</t>
+  </si>
+  <si>
     <t>['Placebo', 'Sotagliflozin 400 mg']</t>
   </si>
   <si>
-    <t>['StioltoÂ® RespimatÂ®', 'Triple Therapy']</t>
+    <t>['StioltoÂ® RespimatÂ®', 'ICS Plus LABA Plus LAMA (Triple Therapy)']</t>
   </si>
   <si>
     <t>['MB02 (Bevacizumab Biosimilar Drug)', 'EU-approved AvastinÂ®']</t>
   </si>
   <si>
-    <t>['Bempedoic Acid 180 mg + Ezetimibe 10 mg FDC', 'Ezetimibe 10 mg']</t>
+    <t>['Bempedoic Acid 180 mg + Ezetimibe 10 mg FDC', 'Bempedoic Acid 180 mg']</t>
   </si>
   <si>
     <t>['TICAGRELOR', 'PLACEBO']</t>
@@ -16272,7 +16272,7 @@
     <t>['B: Faricimab 6 mg PTI', 'C: Aflibercept 2 mg Q8W']</t>
   </si>
   <si>
-    <t>['10 mg Tirzepatide', 'Insulin Glargine']</t>
+    <t>['5 mg Tirzepatide', 'Insulin Glargine']</t>
   </si>
   <si>
     <t>['Safinamide', 'Placebo']</t>
@@ -16284,16 +16284,16 @@
     <t>['Part 1 - Placebo', 'Part 1 - Inclisiran']</t>
   </si>
   <si>
-    <t>['10 mg Tirzepatide', 'Insulin Degludec']</t>
-  </si>
-  <si>
-    <t>['5 mg Tirzepatide', '1 mg Semaglutide']</t>
+    <t>['15 mg Tirzepatide', 'Insulin Degludec']</t>
+  </si>
+  <si>
+    <t>['15 mg Tirzepatide', '1 mg Semaglutide']</t>
   </si>
   <si>
     <t>['Aflibercept 0.4 mg', 'Laser Photocoagulation']</t>
   </si>
   <si>
-    <t>['Infant Participants: RSVpreF 240 mcg With Aluminum Hydroxide', 'Infant Participants: Placebo']</t>
+    <t>['Maternal Participants: RSVpreF 240 mcg With Aluminum Hydroxide', 'Maternal Participants: Placebo']</t>
   </si>
   <si>
     <t>['Participants Receiving Feladilimab and Pembrolizumab', 'Participants Receiving Placebo and Pembrolizumab']</t>
@@ -16302,7 +16302,7 @@
     <t>['Tocilizumab (TCZ) mITT Arm', 'Placebo Modified Intent-to-Treat (mITT) Arm']</t>
   </si>
   <si>
-    <t>['Sarilumab 400 mg', 'Placebo']</t>
+    <t>['Sarilumab 200 mg', 'Placebo']</t>
   </si>
   <si>
     <t>['Abrocitinib 200 mg QD', 'Dupilumab 300 mg Q2W']</t>
@@ -16314,13 +16314,13 @@
     <t>['Tocilizumab', 'Placebo']</t>
   </si>
   <si>
-    <t>['Part 2: Placebo 2', 'Part 2: Otilimab 90 mg']</t>
+    <t>['Part 1: Placebo 1', 'Part 1: Otilimab 90 mg']</t>
   </si>
   <si>
     <t>['MAS825 + SoC', 'Placebo + SoC']</t>
   </si>
   <si>
-    <t>['All Placebo', 'UTTR1147A']</t>
+    <t>['All Placebo', 'MSTT1041A']</t>
   </si>
   <si>
     <t>['Remdesivir Plus Baricitinib', 'Remdesivir Plus Placebo']</t>
@@ -16332,7 +16332,7 @@
     <t>['Placebo + SOC', 'Baricitinib + SOC']</t>
   </si>
   <si>
-    <t>['Phase 2: Placebo', 'Phase 2: 2800 mg Bamlanivimab + 2800 mg Etesevimab']</t>
+    <t>['Part A: Placebo', 'Phase 2: 7000 mg Bamlanivimab']</t>
   </si>
   <si>
     <t>['C21 Treatment', 'Placebo Treatment']</t>
@@ -22276,7 +22276,7 @@
         <v>4217</v>
       </c>
       <c r="S93" t="s">
-        <v>4827</v>
+        <v>4828</v>
       </c>
       <c r="T93">
         <v>1</v>
@@ -22463,7 +22463,7 @@
         <v>4218</v>
       </c>
       <c r="S96" t="s">
-        <v>4828</v>
+        <v>4829</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -22528,7 +22528,7 @@
         <v>4219</v>
       </c>
       <c r="S97" t="s">
-        <v>4829</v>
+        <v>4830</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -22593,7 +22593,7 @@
         <v>4220</v>
       </c>
       <c r="S98" t="s">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="T98">
         <v>1</v>
@@ -22723,7 +22723,7 @@
         <v>2430</v>
       </c>
       <c r="S100" t="s">
-        <v>4831</v>
+        <v>4832</v>
       </c>
       <c r="T100">
         <v>1</v>
@@ -22849,7 +22849,7 @@
         <v>4222</v>
       </c>
       <c r="S102" t="s">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="T102">
         <v>1</v>
@@ -22975,7 +22975,7 @@
         <v>4223</v>
       </c>
       <c r="S104" t="s">
-        <v>4833</v>
+        <v>4834</v>
       </c>
       <c r="T104">
         <v>1</v>
@@ -23040,7 +23040,7 @@
         <v>4224</v>
       </c>
       <c r="S105" t="s">
-        <v>4834</v>
+        <v>4835</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -23105,7 +23105,7 @@
         <v>4225</v>
       </c>
       <c r="S106" t="s">
-        <v>4835</v>
+        <v>4836</v>
       </c>
       <c r="T106">
         <v>5</v>
@@ -23536,7 +23536,7 @@
         <v>4226</v>
       </c>
       <c r="S113" t="s">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="T113">
         <v>1</v>
@@ -23662,7 +23662,7 @@
         <v>4227</v>
       </c>
       <c r="S115" t="s">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="T115">
         <v>1</v>
@@ -23857,7 +23857,7 @@
         <v>2439</v>
       </c>
       <c r="S118" t="s">
-        <v>4838</v>
+        <v>4839</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -23922,7 +23922,7 @@
         <v>4229</v>
       </c>
       <c r="S119" t="s">
-        <v>4839</v>
+        <v>4840</v>
       </c>
       <c r="T119">
         <v>1</v>
@@ -24048,7 +24048,7 @@
         <v>4230</v>
       </c>
       <c r="S121" t="s">
-        <v>4840</v>
+        <v>4841</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>4231</v>
       </c>
       <c r="S122" t="s">
-        <v>4841</v>
+        <v>4842</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>4232</v>
       </c>
       <c r="S126" t="s">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>4233</v>
       </c>
       <c r="S127" t="s">
-        <v>4843</v>
+        <v>4844</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>4234</v>
       </c>
       <c r="S128" t="s">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>4235</v>
       </c>
       <c r="S131" t="s">
-        <v>4845</v>
+        <v>4846</v>
       </c>
       <c r="T131">
         <v>1</v>
@@ -24745,7 +24745,7 @@
         <v>4236</v>
       </c>
       <c r="S132" t="s">
-        <v>4846</v>
+        <v>4847</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>4237</v>
       </c>
       <c r="S133" t="s">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -24997,7 +24997,7 @@
         <v>4238</v>
       </c>
       <c r="S136" t="s">
-        <v>4848</v>
+        <v>4849</v>
       </c>
       <c r="T136">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>4239</v>
       </c>
       <c r="S137" t="s">
-        <v>4849</v>
+        <v>4850</v>
       </c>
       <c r="T137">
         <v>0</v>
@@ -25127,7 +25127,7 @@
         <v>4240</v>
       </c>
       <c r="S138" t="s">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="T138">
         <v>11</v>
@@ -25192,7 +25192,7 @@
         <v>4241</v>
       </c>
       <c r="S139" t="s">
-        <v>4851</v>
+        <v>4852</v>
       </c>
       <c r="T139">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>4242</v>
       </c>
       <c r="S141" t="s">
-        <v>4852</v>
+        <v>4853</v>
       </c>
       <c r="T141">
         <v>1</v>
@@ -25635,7 +25635,7 @@
         <v>4244</v>
       </c>
       <c r="S146" t="s">
-        <v>4853</v>
+        <v>4854</v>
       </c>
       <c r="T146">
         <v>1</v>
@@ -25883,7 +25883,7 @@
         <v>4245</v>
       </c>
       <c r="S150" t="s">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="T150">
         <v>5</v>
@@ -26072,7 +26072,7 @@
         <v>2403</v>
       </c>
       <c r="S153" t="s">
-        <v>4855</v>
+        <v>4856</v>
       </c>
       <c r="T153">
         <v>0</v>
@@ -26200,7 +26200,7 @@
         <v>4246</v>
       </c>
       <c r="S155" t="s">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="T155">
         <v>0</v>
@@ -26326,7 +26326,7 @@
         <v>4247</v>
       </c>
       <c r="S157" t="s">
-        <v>4857</v>
+        <v>4858</v>
       </c>
       <c r="T157">
         <v>0</v>
@@ -26452,7 +26452,7 @@
         <v>2456</v>
       </c>
       <c r="S159" t="s">
-        <v>4858</v>
+        <v>4859</v>
       </c>
       <c r="T159">
         <v>0</v>
@@ -26582,7 +26582,7 @@
         <v>4248</v>
       </c>
       <c r="S161" t="s">
-        <v>4859</v>
+        <v>4860</v>
       </c>
       <c r="T161">
         <v>3</v>
@@ -26647,7 +26647,7 @@
         <v>4249</v>
       </c>
       <c r="S162" t="s">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="T162">
         <v>0</v>
@@ -26834,7 +26834,7 @@
         <v>2397</v>
       </c>
       <c r="S165" t="s">
-        <v>4861</v>
+        <v>4862</v>
       </c>
       <c r="T165">
         <v>3</v>
@@ -26960,7 +26960,7 @@
         <v>4250</v>
       </c>
       <c r="S167" t="s">
-        <v>4862</v>
+        <v>4863</v>
       </c>
       <c r="T167">
         <v>2</v>
@@ -27025,7 +27025,7 @@
         <v>4251</v>
       </c>
       <c r="S168" t="s">
-        <v>4863</v>
+        <v>4864</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -27090,7 +27090,7 @@
         <v>2456</v>
       </c>
       <c r="S169" t="s">
-        <v>4864</v>
+        <v>4865</v>
       </c>
       <c r="T169">
         <v>0</v>
@@ -27155,7 +27155,7 @@
         <v>4252</v>
       </c>
       <c r="S170" t="s">
-        <v>4865</v>
+        <v>4866</v>
       </c>
       <c r="T170">
         <v>0</v>
@@ -27220,7 +27220,7 @@
         <v>4253</v>
       </c>
       <c r="S171" t="s">
-        <v>4866</v>
+        <v>4867</v>
       </c>
       <c r="T171">
         <v>1</v>
@@ -27285,7 +27285,7 @@
         <v>4254</v>
       </c>
       <c r="S172" t="s">
-        <v>4867</v>
+        <v>4868</v>
       </c>
       <c r="T172">
         <v>0</v>
@@ -27350,7 +27350,7 @@
         <v>4255</v>
       </c>
       <c r="S173" t="s">
-        <v>4868</v>
+        <v>4869</v>
       </c>
       <c r="T173">
         <v>0</v>
@@ -27415,7 +27415,7 @@
         <v>4256</v>
       </c>
       <c r="S174" t="s">
-        <v>4869</v>
+        <v>4870</v>
       </c>
       <c r="T174">
         <v>0</v>
@@ -27480,7 +27480,7 @@
         <v>4257</v>
       </c>
       <c r="S175" t="s">
-        <v>4870</v>
+        <v>4871</v>
       </c>
       <c r="T175">
         <v>1</v>
@@ -27545,7 +27545,7 @@
         <v>4258</v>
       </c>
       <c r="S176" t="s">
-        <v>4871</v>
+        <v>4872</v>
       </c>
       <c r="T176">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>4260</v>
       </c>
       <c r="S178" t="s">
-        <v>4866</v>
+        <v>4873</v>
       </c>
       <c r="T178">
         <v>1</v>
@@ -27740,7 +27740,7 @@
         <v>4258</v>
       </c>
       <c r="S179" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
       <c r="T179">
         <v>1</v>
@@ -27805,7 +27805,7 @@
         <v>4261</v>
       </c>
       <c r="S180" t="s">
-        <v>4873</v>
+        <v>4875</v>
       </c>
       <c r="T180">
         <v>1</v>
@@ -28175,7 +28175,7 @@
         <v>4262</v>
       </c>
       <c r="S186" t="s">
-        <v>4874</v>
+        <v>4876</v>
       </c>
       <c r="T186">
         <v>0</v>
@@ -28240,7 +28240,7 @@
         <v>4263</v>
       </c>
       <c r="S187" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
       <c r="T187">
         <v>1</v>
@@ -28305,7 +28305,7 @@
         <v>2473</v>
       </c>
       <c r="S188" t="s">
-        <v>4876</v>
+        <v>4878</v>
       </c>
       <c r="T188">
         <v>0</v>
@@ -28370,7 +28370,7 @@
         <v>4264</v>
       </c>
       <c r="S189" t="s">
-        <v>4877</v>
+        <v>4879</v>
       </c>
       <c r="T189">
         <v>0</v>
@@ -28435,7 +28435,7 @@
         <v>4265</v>
       </c>
       <c r="S190" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
       <c r="T190">
         <v>0</v>
@@ -28565,7 +28565,7 @@
         <v>4267</v>
       </c>
       <c r="S192" t="s">
-        <v>4879</v>
+        <v>4881</v>
       </c>
       <c r="T192">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>4266</v>
       </c>
       <c r="S193" t="s">
-        <v>4880</v>
+        <v>4882</v>
       </c>
       <c r="T193">
         <v>0</v>
@@ -28695,7 +28695,7 @@
         <v>4268</v>
       </c>
       <c r="S194" t="s">
-        <v>4881</v>
+        <v>4883</v>
       </c>
       <c r="T194">
         <v>0</v>
@@ -28882,7 +28882,7 @@
         <v>4269</v>
       </c>
       <c r="S197" t="s">
-        <v>4882</v>
+        <v>4884</v>
       </c>
       <c r="T197">
         <v>1</v>
@@ -29008,7 +29008,7 @@
         <v>2464</v>
       </c>
       <c r="S199" t="s">
-        <v>4883</v>
+        <v>4885</v>
       </c>
       <c r="T199">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>2858</v>
       </c>
       <c r="S201" t="s">
-        <v>4884</v>
+        <v>4886</v>
       </c>
       <c r="T201">
         <v>1</v>
@@ -29197,7 +29197,7 @@
         <v>4270</v>
       </c>
       <c r="S202" t="s">
-        <v>4885</v>
+        <v>4887</v>
       </c>
       <c r="T202">
         <v>1</v>
@@ -29262,7 +29262,7 @@
         <v>4271</v>
       </c>
       <c r="S203" t="s">
-        <v>4886</v>
+        <v>4888</v>
       </c>
       <c r="T203">
         <v>0</v>
@@ -29327,7 +29327,7 @@
         <v>4271</v>
       </c>
       <c r="S204" t="s">
-        <v>4886</v>
+        <v>4888</v>
       </c>
       <c r="T204">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>4272</v>
       </c>
       <c r="S207" t="s">
-        <v>4887</v>
+        <v>4889</v>
       </c>
       <c r="T207">
         <v>1</v>
@@ -29579,7 +29579,7 @@
         <v>4253</v>
       </c>
       <c r="S208" t="s">
-        <v>4888</v>
+        <v>4890</v>
       </c>
       <c r="T208">
         <v>0</v>
@@ -29644,7 +29644,7 @@
         <v>4273</v>
       </c>
       <c r="S209" t="s">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="T209">
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>4274</v>
       </c>
       <c r="S211" t="s">
-        <v>4890</v>
+        <v>4892</v>
       </c>
       <c r="T211">
         <v>0</v>
@@ -29896,7 +29896,7 @@
         <v>4275</v>
       </c>
       <c r="S213" t="s">
-        <v>4891</v>
+        <v>4893</v>
       </c>
       <c r="T213">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>4276</v>
       </c>
       <c r="S215" t="s">
-        <v>4892</v>
+        <v>4894</v>
       </c>
       <c r="T215">
         <v>1</v>
@@ -30087,7 +30087,7 @@
         <v>4253</v>
       </c>
       <c r="S216" t="s">
-        <v>4866</v>
+        <v>4873</v>
       </c>
       <c r="T216">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>4277</v>
       </c>
       <c r="S217" t="s">
-        <v>4893</v>
+        <v>4895</v>
       </c>
       <c r="T217">
         <v>0</v>
@@ -30217,7 +30217,7 @@
         <v>2531</v>
       </c>
       <c r="S218" t="s">
-        <v>4894</v>
+        <v>4896</v>
       </c>
       <c r="T218">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>4278</v>
       </c>
       <c r="S219" t="s">
-        <v>4895</v>
+        <v>4897</v>
       </c>
       <c r="T219">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>4279</v>
       </c>
       <c r="S220" t="s">
-        <v>4896</v>
+        <v>4898</v>
       </c>
       <c r="T220">
         <v>1</v>
@@ -30412,7 +30412,7 @@
         <v>4280</v>
       </c>
       <c r="S221" t="s">
-        <v>4897</v>
+        <v>4899</v>
       </c>
       <c r="T221">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>4281</v>
       </c>
       <c r="S223" t="s">
-        <v>4898</v>
+        <v>4900</v>
       </c>
       <c r="T223">
         <v>0</v>
@@ -30603,7 +30603,7 @@
         <v>4282</v>
       </c>
       <c r="S224" t="s">
-        <v>4899</v>
+        <v>4901</v>
       </c>
       <c r="T224">
         <v>0</v>
@@ -30729,7 +30729,7 @@
         <v>2491</v>
       </c>
       <c r="S226" t="s">
-        <v>4900</v>
+        <v>4902</v>
       </c>
       <c r="T226">
         <v>0</v>
@@ -30916,7 +30916,7 @@
         <v>2492</v>
       </c>
       <c r="S229" t="s">
-        <v>4901</v>
+        <v>4903</v>
       </c>
       <c r="T229">
         <v>1</v>
@@ -30981,7 +30981,7 @@
         <v>4283</v>
       </c>
       <c r="S230" t="s">
-        <v>4902</v>
+        <v>4904</v>
       </c>
       <c r="T230">
         <v>1</v>
@@ -31046,7 +31046,7 @@
         <v>4284</v>
       </c>
       <c r="S231" t="s">
-        <v>4903</v>
+        <v>4905</v>
       </c>
       <c r="T231">
         <v>0</v>
@@ -31111,7 +31111,7 @@
         <v>4285</v>
       </c>
       <c r="S232" t="s">
-        <v>4904</v>
+        <v>4906</v>
       </c>
       <c r="T232">
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>2495</v>
       </c>
       <c r="S233" t="s">
-        <v>4905</v>
+        <v>4907</v>
       </c>
       <c r="T233">
         <v>0</v>
@@ -31302,7 +31302,7 @@
         <v>2464</v>
       </c>
       <c r="S235" t="s">
-        <v>4906</v>
+        <v>4908</v>
       </c>
       <c r="T235">
         <v>0</v>
@@ -31367,7 +31367,7 @@
         <v>4286</v>
       </c>
       <c r="S236" t="s">
-        <v>4907</v>
+        <v>4909</v>
       </c>
       <c r="T236">
         <v>1</v>
@@ -31432,7 +31432,7 @@
         <v>4287</v>
       </c>
       <c r="S237" t="s">
-        <v>4908</v>
+        <v>4910</v>
       </c>
       <c r="T237">
         <v>0</v>
@@ -31497,7 +31497,7 @@
         <v>2531</v>
       </c>
       <c r="S238" t="s">
-        <v>4909</v>
+        <v>4911</v>
       </c>
       <c r="T238">
         <v>0</v>
@@ -31562,7 +31562,7 @@
         <v>4288</v>
       </c>
       <c r="S239" t="s">
-        <v>4910</v>
+        <v>4912</v>
       </c>
       <c r="T239">
         <v>0</v>
@@ -31627,7 +31627,7 @@
         <v>2456</v>
       </c>
       <c r="S240" t="s">
-        <v>4911</v>
+        <v>4913</v>
       </c>
       <c r="T240">
         <v>0</v>
@@ -31692,7 +31692,7 @@
         <v>4289</v>
       </c>
       <c r="S241" t="s">
-        <v>4912</v>
+        <v>4914</v>
       </c>
       <c r="T241">
         <v>0</v>
@@ -31757,7 +31757,7 @@
         <v>4290</v>
       </c>
       <c r="S242" t="s">
-        <v>4913</v>
+        <v>4915</v>
       </c>
       <c r="T242">
         <v>1</v>
@@ -31944,7 +31944,7 @@
         <v>4291</v>
       </c>
       <c r="S245" t="s">
-        <v>4914</v>
+        <v>4916</v>
       </c>
       <c r="T245">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>4292</v>
       </c>
       <c r="S246" t="s">
-        <v>4915</v>
+        <v>4917</v>
       </c>
       <c r="T246">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>4293</v>
       </c>
       <c r="S247" t="s">
-        <v>4916</v>
+        <v>4918</v>
       </c>
       <c r="T247">
         <v>0</v>
@@ -32198,7 +32198,7 @@
         <v>4294</v>
       </c>
       <c r="S249" t="s">
-        <v>4917</v>
+        <v>4919</v>
       </c>
       <c r="T249">
         <v>0</v>
@@ -32263,7 +32263,7 @@
         <v>4295</v>
       </c>
       <c r="S250" t="s">
-        <v>4918</v>
+        <v>4920</v>
       </c>
       <c r="T250">
         <v>0</v>
@@ -32328,7 +32328,7 @@
         <v>4296</v>
       </c>
       <c r="S251" t="s">
-        <v>4919</v>
+        <v>4921</v>
       </c>
       <c r="T251">
         <v>0</v>
@@ -32454,7 +32454,7 @@
         <v>4297</v>
       </c>
       <c r="S253" t="s">
-        <v>4920</v>
+        <v>4922</v>
       </c>
       <c r="T253">
         <v>0</v>
@@ -32580,7 +32580,7 @@
         <v>4298</v>
       </c>
       <c r="S255" t="s">
-        <v>4921</v>
+        <v>4923</v>
       </c>
       <c r="T255">
         <v>0</v>
@@ -32767,7 +32767,7 @@
         <v>2508</v>
       </c>
       <c r="S258" t="s">
-        <v>4922</v>
+        <v>4924</v>
       </c>
       <c r="T258">
         <v>3</v>
@@ -32832,7 +32832,7 @@
         <v>2614</v>
       </c>
       <c r="S259" t="s">
-        <v>4923</v>
+        <v>4925</v>
       </c>
       <c r="T259">
         <v>0</v>
@@ -32897,7 +32897,7 @@
         <v>2508</v>
       </c>
       <c r="S260" t="s">
-        <v>4922</v>
+        <v>4924</v>
       </c>
       <c r="T260">
         <v>1</v>
@@ -33084,7 +33084,7 @@
         <v>4299</v>
       </c>
       <c r="S263" t="s">
-        <v>4924</v>
+        <v>4926</v>
       </c>
       <c r="T263">
         <v>0</v>
@@ -33149,7 +33149,7 @@
         <v>4300</v>
       </c>
       <c r="S264" t="s">
-        <v>4925</v>
+        <v>4927</v>
       </c>
       <c r="T264">
         <v>0</v>
@@ -33214,7 +33214,7 @@
         <v>4241</v>
       </c>
       <c r="S265" t="s">
-        <v>4926</v>
+        <v>4928</v>
       </c>
       <c r="T265">
         <v>0</v>
@@ -33279,7 +33279,7 @@
         <v>4301</v>
       </c>
       <c r="S266" t="s">
-        <v>4927</v>
+        <v>4929</v>
       </c>
       <c r="T266">
         <v>2</v>
@@ -33344,7 +33344,7 @@
         <v>4302</v>
       </c>
       <c r="S267" t="s">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="T267">
         <v>0</v>
@@ -33470,7 +33470,7 @@
         <v>4303</v>
       </c>
       <c r="S269" t="s">
-        <v>4929</v>
+        <v>4931</v>
       </c>
       <c r="T269">
         <v>4</v>
@@ -33535,7 +33535,7 @@
         <v>4304</v>
       </c>
       <c r="S270" t="s">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="T270">
         <v>0</v>
@@ -33600,7 +33600,7 @@
         <v>4305</v>
       </c>
       <c r="S271" t="s">
-        <v>4931</v>
+        <v>4933</v>
       </c>
       <c r="T271">
         <v>0</v>
@@ -33665,7 +33665,7 @@
         <v>4306</v>
       </c>
       <c r="S272" t="s">
-        <v>4932</v>
+        <v>4934</v>
       </c>
       <c r="T272">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>2456</v>
       </c>
       <c r="S273" t="s">
-        <v>4933</v>
+        <v>4935</v>
       </c>
       <c r="T273">
         <v>0</v>
@@ -33856,7 +33856,7 @@
         <v>4307</v>
       </c>
       <c r="S275" t="s">
-        <v>4934</v>
+        <v>4936</v>
       </c>
       <c r="T275">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>4308</v>
       </c>
       <c r="S278" t="s">
-        <v>4935</v>
+        <v>4937</v>
       </c>
       <c r="T278">
         <v>0</v>
@@ -34108,7 +34108,7 @@
         <v>2518</v>
       </c>
       <c r="S279" t="s">
-        <v>4936</v>
+        <v>4938</v>
       </c>
       <c r="T279">
         <v>2</v>
@@ -34173,7 +34173,7 @@
         <v>4309</v>
       </c>
       <c r="S280" t="s">
-        <v>4937</v>
+        <v>4939</v>
       </c>
       <c r="T280">
         <v>0</v>
@@ -34364,7 +34364,7 @@
         <v>4311</v>
       </c>
       <c r="S283" t="s">
-        <v>4938</v>
+        <v>4940</v>
       </c>
       <c r="T283">
         <v>0</v>
@@ -34490,7 +34490,7 @@
         <v>4312</v>
       </c>
       <c r="S285" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
       <c r="T285">
         <v>0</v>
@@ -34616,7 +34616,7 @@
         <v>4313</v>
       </c>
       <c r="S287" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="T287">
         <v>0</v>
@@ -34681,7 +34681,7 @@
         <v>4313</v>
       </c>
       <c r="S288" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="T288">
         <v>0</v>
@@ -34746,7 +34746,7 @@
         <v>4314</v>
       </c>
       <c r="S289" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
       <c r="T289">
         <v>4</v>
@@ -34811,7 +34811,7 @@
         <v>4315</v>
       </c>
       <c r="S290" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
       <c r="T290">
         <v>1</v>
@@ -35124,7 +35124,7 @@
         <v>4317</v>
       </c>
       <c r="S295" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
       <c r="T295">
         <v>1</v>
@@ -35311,7 +35311,7 @@
         <v>4318</v>
       </c>
       <c r="S298" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
       <c r="T298">
         <v>0</v>
@@ -35376,7 +35376,7 @@
         <v>4319</v>
       </c>
       <c r="S299" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
       <c r="T299">
         <v>0</v>
@@ -35441,7 +35441,7 @@
         <v>4319</v>
       </c>
       <c r="S300" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
       <c r="T300">
         <v>1</v>
@@ -35506,7 +35506,7 @@
         <v>4320</v>
       </c>
       <c r="S301" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
       <c r="T301">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>4320</v>
       </c>
       <c r="S302" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
       <c r="T302">
         <v>0</v>
@@ -35636,7 +35636,7 @@
         <v>4321</v>
       </c>
       <c r="S303" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="T303">
         <v>0</v>
@@ -35762,7 +35762,7 @@
         <v>4322</v>
       </c>
       <c r="S305" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
       <c r="T305">
         <v>0</v>
@@ -35953,7 +35953,7 @@
         <v>4324</v>
       </c>
       <c r="S308" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
       <c r="T308">
         <v>1</v>
@@ -36018,7 +36018,7 @@
         <v>4325</v>
       </c>
       <c r="S309" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
       <c r="T309">
         <v>0</v>
@@ -36083,7 +36083,7 @@
         <v>4326</v>
       </c>
       <c r="S310" t="s">
-        <v>4914</v>
+        <v>4916</v>
       </c>
       <c r="T310">
         <v>0</v>
@@ -36146,7 +36146,7 @@
         <v>4327</v>
       </c>
       <c r="S311" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="T311">
         <v>0</v>
@@ -36272,7 +36272,7 @@
         <v>4328</v>
       </c>
       <c r="S313" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
       <c r="T313">
         <v>1</v>
@@ -36398,7 +36398,7 @@
         <v>4329</v>
       </c>
       <c r="S315" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
       <c r="T315">
         <v>0</v>
@@ -36463,7 +36463,7 @@
         <v>2531</v>
       </c>
       <c r="S316" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
       <c r="T316">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>4330</v>
       </c>
       <c r="S318" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
       <c r="T318">
         <v>0</v>
@@ -36654,7 +36654,7 @@
         <v>4331</v>
       </c>
       <c r="S319" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
       <c r="T319">
         <v>0</v>
@@ -36719,7 +36719,7 @@
         <v>4332</v>
       </c>
       <c r="S320" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="T320">
         <v>0</v>
@@ -36906,7 +36906,7 @@
         <v>4295</v>
       </c>
       <c r="S323" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
       <c r="T323">
         <v>0</v>
@@ -36971,7 +36971,7 @@
         <v>4333</v>
       </c>
       <c r="S324" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
       <c r="T324">
         <v>2</v>
@@ -37036,7 +37036,7 @@
         <v>4334</v>
       </c>
       <c r="S325" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
       <c r="T325">
         <v>0</v>
@@ -37223,7 +37223,7 @@
         <v>2473</v>
       </c>
       <c r="S328" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="T328">
         <v>0</v>
@@ -37288,7 +37288,7 @@
         <v>4335</v>
       </c>
       <c r="S329" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
       <c r="T329">
         <v>0</v>
@@ -37414,7 +37414,7 @@
         <v>4336</v>
       </c>
       <c r="S331" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
       <c r="T331">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>4213</v>
       </c>
       <c r="S332" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
       <c r="T332">
         <v>0</v>
@@ -37605,7 +37605,7 @@
         <v>2539</v>
       </c>
       <c r="S334" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="T334">
         <v>0</v>
@@ -37731,7 +37731,7 @@
         <v>4337</v>
       </c>
       <c r="S336" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
       <c r="T336">
         <v>0</v>
@@ -37796,7 +37796,7 @@
         <v>4338</v>
       </c>
       <c r="S337" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
       <c r="T337">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>4339</v>
       </c>
       <c r="S338" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
       <c r="T338">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>4340</v>
       </c>
       <c r="S339" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
       <c r="T339">
         <v>1</v>
@@ -37991,7 +37991,7 @@
         <v>4341</v>
       </c>
       <c r="S340" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
       <c r="T340">
         <v>0</v>
@@ -38056,7 +38056,7 @@
         <v>4200</v>
       </c>
       <c r="S341" t="s">
-        <v>4972</v>
+        <v>3418</v>
       </c>
       <c r="T341">
         <v>0</v>
@@ -38182,7 +38182,7 @@
         <v>4342</v>
       </c>
       <c r="S343" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="T343">
         <v>0</v>
@@ -38247,7 +38247,7 @@
         <v>2547</v>
       </c>
       <c r="S344" t="s">
-        <v>4974</v>
+        <v>4975</v>
       </c>
       <c r="T344">
         <v>0</v>
@@ -38312,7 +38312,7 @@
         <v>4343</v>
       </c>
       <c r="S345" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
       <c r="T345">
         <v>0</v>
@@ -38377,7 +38377,7 @@
         <v>4344</v>
       </c>
       <c r="S346" t="s">
-        <v>4976</v>
+        <v>4977</v>
       </c>
       <c r="T346">
         <v>0</v>
@@ -38564,7 +38564,7 @@
         <v>4345</v>
       </c>
       <c r="S349" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
       <c r="T349">
         <v>0</v>
@@ -38690,7 +38690,7 @@
         <v>4346</v>
       </c>
       <c r="S351" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
       <c r="T351">
         <v>0</v>
@@ -38816,7 +38816,7 @@
         <v>4347</v>
       </c>
       <c r="S353" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="T353">
         <v>0</v>
@@ -38881,7 +38881,7 @@
         <v>4348</v>
       </c>
       <c r="S354" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
       <c r="T354">
         <v>0</v>
@@ -38946,7 +38946,7 @@
         <v>4349</v>
       </c>
       <c r="S355" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="T355">
         <v>0</v>
@@ -39194,7 +39194,7 @@
         <v>4350</v>
       </c>
       <c r="S359" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
       <c r="T359">
         <v>1</v>
@@ -39442,7 +39442,7 @@
         <v>4351</v>
       </c>
       <c r="S363" t="s">
-        <v>4983</v>
+        <v>4984</v>
       </c>
       <c r="T363">
         <v>0</v>
@@ -39629,7 +39629,7 @@
         <v>4352</v>
       </c>
       <c r="S366" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
       <c r="T366">
         <v>0</v>
@@ -39694,7 +39694,7 @@
         <v>4353</v>
       </c>
       <c r="S367" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
       <c r="T367">
         <v>0</v>
@@ -39759,7 +39759,7 @@
         <v>4354</v>
       </c>
       <c r="S368" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="T368">
         <v>0</v>
@@ -39824,7 +39824,7 @@
         <v>4355</v>
       </c>
       <c r="S369" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="T369">
         <v>0</v>
@@ -39889,7 +39889,7 @@
         <v>4356</v>
       </c>
       <c r="S370" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
       <c r="T370">
         <v>0</v>
@@ -40141,7 +40141,7 @@
         <v>2422</v>
       </c>
       <c r="S374" t="s">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="T374">
         <v>1</v>
@@ -40267,7 +40267,7 @@
         <v>4357</v>
       </c>
       <c r="S376" t="s">
-        <v>4990</v>
+        <v>4991</v>
       </c>
       <c r="T376">
         <v>5</v>
@@ -40330,7 +40330,7 @@
         <v>4358</v>
       </c>
       <c r="S377" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="T377">
         <v>2</v>
@@ -40395,7 +40395,7 @@
         <v>4359</v>
       </c>
       <c r="S378" t="s">
-        <v>4992</v>
+        <v>4993</v>
       </c>
       <c r="T378">
         <v>0</v>
@@ -40460,7 +40460,7 @@
         <v>4360</v>
       </c>
       <c r="S379" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
       <c r="T379">
         <v>1</v>
@@ -40525,7 +40525,7 @@
         <v>4361</v>
       </c>
       <c r="S380" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
       <c r="T380">
         <v>0</v>
@@ -40710,7 +40710,7 @@
         <v>4358</v>
       </c>
       <c r="S383" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
       <c r="T383">
         <v>0</v>
@@ -40773,7 +40773,7 @@
         <v>4358</v>
       </c>
       <c r="S384" t="s">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="T384">
         <v>0</v>
@@ -43049,7 +43049,7 @@
         <v>2397</v>
       </c>
       <c r="S420" t="s">
-        <v>4861</v>
+        <v>4862</v>
       </c>
       <c r="T420">
         <v>2</v>
@@ -45400,7 +45400,7 @@
         <v>4399</v>
       </c>
       <c r="S457" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="T457">
         <v>0</v>
@@ -49263,7 +49263,7 @@
         <v>4425</v>
       </c>
       <c r="S518" t="s">
-        <v>5044</v>
+        <v>5059</v>
       </c>
       <c r="T518">
         <v>1</v>
@@ -49633,7 +49633,7 @@
         <v>3418</v>
       </c>
       <c r="S524" t="s">
-        <v>5059</v>
+        <v>5060</v>
       </c>
       <c r="T524">
         <v>0</v>
@@ -49889,7 +49889,7 @@
         <v>4427</v>
       </c>
       <c r="S528" t="s">
-        <v>5060</v>
+        <v>5061</v>
       </c>
       <c r="T528">
         <v>1</v>
@@ -49954,7 +49954,7 @@
         <v>4428</v>
       </c>
       <c r="S529" t="s">
-        <v>5061</v>
+        <v>5062</v>
       </c>
       <c r="T529">
         <v>3</v>
@@ -50084,7 +50084,7 @@
         <v>4430</v>
       </c>
       <c r="S531" t="s">
-        <v>5062</v>
+        <v>5063</v>
       </c>
       <c r="T531">
         <v>0</v>
@@ -50149,7 +50149,7 @@
         <v>4431</v>
       </c>
       <c r="S532" t="s">
-        <v>5063</v>
+        <v>5064</v>
       </c>
       <c r="T532">
         <v>1</v>
@@ -50214,7 +50214,7 @@
         <v>4432</v>
       </c>
       <c r="S533" t="s">
-        <v>5064</v>
+        <v>5065</v>
       </c>
       <c r="T533">
         <v>0</v>
@@ -50279,7 +50279,7 @@
         <v>4433</v>
       </c>
       <c r="S534" t="s">
-        <v>5065</v>
+        <v>5066</v>
       </c>
       <c r="T534">
         <v>1</v>
@@ -50344,7 +50344,7 @@
         <v>4434</v>
       </c>
       <c r="S535" t="s">
-        <v>5066</v>
+        <v>5067</v>
       </c>
       <c r="T535">
         <v>0</v>
@@ -50409,7 +50409,7 @@
         <v>4435</v>
       </c>
       <c r="S536" t="s">
-        <v>5067</v>
+        <v>5068</v>
       </c>
       <c r="T536">
         <v>1</v>
@@ -50474,7 +50474,7 @@
         <v>4436</v>
       </c>
       <c r="S537" t="s">
-        <v>5068</v>
+        <v>5069</v>
       </c>
       <c r="T537">
         <v>0</v>
@@ -50600,7 +50600,7 @@
         <v>4437</v>
       </c>
       <c r="S539" t="s">
-        <v>5069</v>
+        <v>5070</v>
       </c>
       <c r="T539">
         <v>0</v>
@@ -50726,7 +50726,7 @@
         <v>4438</v>
       </c>
       <c r="S541" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="T541">
         <v>0</v>
@@ -50791,7 +50791,7 @@
         <v>4439</v>
       </c>
       <c r="S542" t="s">
-        <v>5071</v>
+        <v>5072</v>
       </c>
       <c r="T542">
         <v>0</v>
@@ -50917,7 +50917,7 @@
         <v>4440</v>
       </c>
       <c r="S544" t="s">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="T544">
         <v>1</v>
@@ -50982,7 +50982,7 @@
         <v>4440</v>
       </c>
       <c r="S545" t="s">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="T545">
         <v>0</v>
@@ -51045,7 +51045,7 @@
         <v>4441</v>
       </c>
       <c r="S546" t="s">
-        <v>5074</v>
+        <v>5075</v>
       </c>
       <c r="T546">
         <v>1</v>
@@ -51171,7 +51171,7 @@
         <v>4442</v>
       </c>
       <c r="S548" t="s">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="T548">
         <v>1</v>
@@ -51236,7 +51236,7 @@
         <v>4443</v>
       </c>
       <c r="S549" t="s">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="T549">
         <v>1</v>
@@ -51362,7 +51362,7 @@
         <v>2457</v>
       </c>
       <c r="S551" t="s">
-        <v>5077</v>
+        <v>5078</v>
       </c>
       <c r="T551">
         <v>1</v>
@@ -51427,7 +51427,7 @@
         <v>4444</v>
       </c>
       <c r="S552" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="T552">
         <v>1</v>
@@ -51492,7 +51492,7 @@
         <v>4445</v>
       </c>
       <c r="S553" t="s">
-        <v>5079</v>
+        <v>5080</v>
       </c>
       <c r="T553">
         <v>0</v>
@@ -51740,7 +51740,7 @@
         <v>4446</v>
       </c>
       <c r="S557" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="T557">
         <v>0</v>
@@ -51805,7 +51805,7 @@
         <v>4446</v>
       </c>
       <c r="S558" t="s">
-        <v>5081</v>
+        <v>5082</v>
       </c>
       <c r="T558">
         <v>0</v>
@@ -51870,7 +51870,7 @@
         <v>4447</v>
       </c>
       <c r="S559" t="s">
-        <v>5082</v>
+        <v>5083</v>
       </c>
       <c r="T559">
         <v>0</v>
@@ -51935,7 +51935,7 @@
         <v>4448</v>
       </c>
       <c r="S560" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="T560">
         <v>0</v>
@@ -52061,7 +52061,7 @@
         <v>4449</v>
       </c>
       <c r="S562" t="s">
-        <v>5084</v>
+        <v>5085</v>
       </c>
       <c r="T562">
         <v>2</v>
@@ -52246,7 +52246,7 @@
         <v>4450</v>
       </c>
       <c r="S565" t="s">
-        <v>5085</v>
+        <v>5086</v>
       </c>
       <c r="T565">
         <v>0</v>
@@ -52311,7 +52311,7 @@
         <v>4451</v>
       </c>
       <c r="S566" t="s">
-        <v>5086</v>
+        <v>5087</v>
       </c>
       <c r="T566">
         <v>0</v>
@@ -52437,7 +52437,7 @@
         <v>4452</v>
       </c>
       <c r="S568" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="T568">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>4453</v>
       </c>
       <c r="S569" t="s">
-        <v>5087</v>
+        <v>5088</v>
       </c>
       <c r="T569">
         <v>1</v>
@@ -52628,7 +52628,7 @@
         <v>4454</v>
       </c>
       <c r="S571" t="s">
-        <v>5088</v>
+        <v>5089</v>
       </c>
       <c r="T571">
         <v>0</v>
@@ -52815,7 +52815,7 @@
         <v>4455</v>
       </c>
       <c r="S574" t="s">
-        <v>5089</v>
+        <v>5090</v>
       </c>
       <c r="T574">
         <v>0</v>
@@ -52880,7 +52880,7 @@
         <v>4456</v>
       </c>
       <c r="S575" t="s">
-        <v>5090</v>
+        <v>5091</v>
       </c>
       <c r="T575">
         <v>0</v>
@@ -52945,7 +52945,7 @@
         <v>4457</v>
       </c>
       <c r="S576" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="T576">
         <v>3</v>
@@ -53010,7 +53010,7 @@
         <v>4458</v>
       </c>
       <c r="S577" t="s">
-        <v>5091</v>
+        <v>5092</v>
       </c>
       <c r="T577">
         <v>0</v>
@@ -53075,7 +53075,7 @@
         <v>4459</v>
       </c>
       <c r="S578" t="s">
-        <v>5092</v>
+        <v>5093</v>
       </c>
       <c r="T578">
         <v>0</v>
@@ -53140,7 +53140,7 @@
         <v>4460</v>
       </c>
       <c r="S579" t="s">
-        <v>5093</v>
+        <v>5094</v>
       </c>
       <c r="T579">
         <v>2</v>
@@ -53205,7 +53205,7 @@
         <v>4461</v>
       </c>
       <c r="S580" t="s">
-        <v>5094</v>
+        <v>5095</v>
       </c>
       <c r="T580">
         <v>0</v>
@@ -53270,7 +53270,7 @@
         <v>4462</v>
       </c>
       <c r="S581" t="s">
-        <v>5095</v>
+        <v>5096</v>
       </c>
       <c r="T581">
         <v>0</v>
@@ -53396,7 +53396,7 @@
         <v>4463</v>
       </c>
       <c r="S583" t="s">
-        <v>5096</v>
+        <v>5097</v>
       </c>
       <c r="T583">
         <v>0</v>
@@ -53461,7 +53461,7 @@
         <v>4464</v>
       </c>
       <c r="S584" t="s">
-        <v>5097</v>
+        <v>5098</v>
       </c>
       <c r="T584">
         <v>8</v>
@@ -53526,7 +53526,7 @@
         <v>4465</v>
       </c>
       <c r="S585" t="s">
-        <v>5098</v>
+        <v>5099</v>
       </c>
       <c r="T585">
         <v>1</v>
@@ -53652,7 +53652,7 @@
         <v>4466</v>
       </c>
       <c r="S587" t="s">
-        <v>5099</v>
+        <v>5100</v>
       </c>
       <c r="T587">
         <v>0</v>
@@ -53717,7 +53717,7 @@
         <v>4467</v>
       </c>
       <c r="S588" t="s">
-        <v>5100</v>
+        <v>5101</v>
       </c>
       <c r="T588">
         <v>1</v>
@@ -53843,7 +53843,7 @@
         <v>4468</v>
       </c>
       <c r="S590" t="s">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="T590">
         <v>1</v>
@@ -53908,7 +53908,7 @@
         <v>4469</v>
       </c>
       <c r="S591" t="s">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="T591">
         <v>2</v>
@@ -53973,7 +53973,7 @@
         <v>4470</v>
       </c>
       <c r="S592" t="s">
-        <v>5103</v>
+        <v>5104</v>
       </c>
       <c r="T592">
         <v>0</v>
@@ -54038,7 +54038,7 @@
         <v>4471</v>
       </c>
       <c r="S593" t="s">
-        <v>5104</v>
+        <v>5105</v>
       </c>
       <c r="T593">
         <v>0</v>
@@ -54103,7 +54103,7 @@
         <v>4472</v>
       </c>
       <c r="S594" t="s">
-        <v>5105</v>
+        <v>5106</v>
       </c>
       <c r="T594">
         <v>2</v>
@@ -54168,7 +54168,7 @@
         <v>4473</v>
       </c>
       <c r="S595" t="s">
-        <v>5106</v>
+        <v>5107</v>
       </c>
       <c r="T595">
         <v>1</v>
@@ -54233,7 +54233,7 @@
         <v>4474</v>
       </c>
       <c r="S596" t="s">
-        <v>5107</v>
+        <v>5108</v>
       </c>
       <c r="T596">
         <v>0</v>
@@ -54420,7 +54420,7 @@
         <v>4475</v>
       </c>
       <c r="S599" t="s">
-        <v>5108</v>
+        <v>5109</v>
       </c>
       <c r="T599">
         <v>0</v>
@@ -54546,7 +54546,7 @@
         <v>4476</v>
       </c>
       <c r="S601" t="s">
-        <v>5109</v>
+        <v>5110</v>
       </c>
       <c r="T601">
         <v>1</v>
@@ -54611,7 +54611,7 @@
         <v>4477</v>
       </c>
       <c r="S602" t="s">
-        <v>5110</v>
+        <v>5111</v>
       </c>
       <c r="T602">
         <v>0</v>
@@ -54737,7 +54737,7 @@
         <v>4478</v>
       </c>
       <c r="S604" t="s">
-        <v>5111</v>
+        <v>5112</v>
       </c>
       <c r="T604">
         <v>0</v>
@@ -54802,7 +54802,7 @@
         <v>4479</v>
       </c>
       <c r="S605" t="s">
-        <v>5112</v>
+        <v>5113</v>
       </c>
       <c r="T605">
         <v>0</v>
@@ -54867,7 +54867,7 @@
         <v>4480</v>
       </c>
       <c r="S606" t="s">
-        <v>5113</v>
+        <v>5114</v>
       </c>
       <c r="T606">
         <v>1</v>
@@ -54932,7 +54932,7 @@
         <v>4481</v>
       </c>
       <c r="S607" t="s">
-        <v>5114</v>
+        <v>5115</v>
       </c>
       <c r="T607">
         <v>1</v>
@@ -54997,7 +54997,7 @@
         <v>4482</v>
       </c>
       <c r="S608" t="s">
-        <v>5115</v>
+        <v>5116</v>
       </c>
       <c r="T608">
         <v>0</v>
@@ -55062,7 +55062,7 @@
         <v>4483</v>
       </c>
       <c r="S609" t="s">
-        <v>5116</v>
+        <v>5117</v>
       </c>
       <c r="T609">
         <v>0</v>
@@ -55127,7 +55127,7 @@
         <v>4484</v>
       </c>
       <c r="S610" t="s">
-        <v>5117</v>
+        <v>5118</v>
       </c>
       <c r="T610">
         <v>0</v>
@@ -55257,7 +55257,7 @@
         <v>2534</v>
       </c>
       <c r="S612" t="s">
-        <v>5118</v>
+        <v>5119</v>
       </c>
       <c r="T612">
         <v>0</v>
@@ -55322,7 +55322,7 @@
         <v>2534</v>
       </c>
       <c r="S613" t="s">
-        <v>5119</v>
+        <v>5120</v>
       </c>
       <c r="T613">
         <v>2</v>
@@ -55448,7 +55448,7 @@
         <v>4486</v>
       </c>
       <c r="S615" t="s">
-        <v>5120</v>
+        <v>5121</v>
       </c>
       <c r="T615">
         <v>0</v>
@@ -55574,7 +55574,7 @@
         <v>4487</v>
       </c>
       <c r="S617" t="s">
-        <v>5121</v>
+        <v>5122</v>
       </c>
       <c r="T617">
         <v>0</v>
@@ -55639,7 +55639,7 @@
         <v>4488</v>
       </c>
       <c r="S618" t="s">
-        <v>5122</v>
+        <v>5123</v>
       </c>
       <c r="T618">
         <v>0</v>
@@ -55704,7 +55704,7 @@
         <v>4489</v>
       </c>
       <c r="S619" t="s">
-        <v>5123</v>
+        <v>5124</v>
       </c>
       <c r="T619">
         <v>1</v>
@@ -55830,7 +55830,7 @@
         <v>4490</v>
       </c>
       <c r="S621" t="s">
-        <v>5124</v>
+        <v>5125</v>
       </c>
       <c r="T621">
         <v>0</v>
@@ -55895,7 +55895,7 @@
         <v>4491</v>
       </c>
       <c r="S622" t="s">
-        <v>5125</v>
+        <v>5126</v>
       </c>
       <c r="T622">
         <v>0</v>
@@ -56021,7 +56021,7 @@
         <v>2448</v>
       </c>
       <c r="S624" t="s">
-        <v>4849</v>
+        <v>4850</v>
       </c>
       <c r="T624">
         <v>1</v>
@@ -56208,7 +56208,7 @@
         <v>2666</v>
       </c>
       <c r="S627" t="s">
-        <v>5126</v>
+        <v>5127</v>
       </c>
       <c r="T627">
         <v>1</v>
@@ -56334,7 +56334,7 @@
         <v>4492</v>
       </c>
       <c r="S629" t="s">
-        <v>5127</v>
+        <v>5128</v>
       </c>
       <c r="T629">
         <v>1</v>
@@ -56460,7 +56460,7 @@
         <v>4493</v>
       </c>
       <c r="S631" t="s">
-        <v>5128</v>
+        <v>5129</v>
       </c>
       <c r="T631">
         <v>0</v>
@@ -56586,7 +56586,7 @@
         <v>4494</v>
       </c>
       <c r="S633" t="s">
-        <v>5129</v>
+        <v>5130</v>
       </c>
       <c r="T633">
         <v>0</v>
@@ -56712,7 +56712,7 @@
         <v>4495</v>
       </c>
       <c r="S635" t="s">
-        <v>5130</v>
+        <v>5131</v>
       </c>
       <c r="T635">
         <v>1</v>
@@ -56777,7 +56777,7 @@
         <v>4495</v>
       </c>
       <c r="S636" t="s">
-        <v>5131</v>
+        <v>5132</v>
       </c>
       <c r="T636">
         <v>1</v>
@@ -56903,7 +56903,7 @@
         <v>4496</v>
       </c>
       <c r="S638" t="s">
-        <v>5132</v>
+        <v>5133</v>
       </c>
       <c r="T638">
         <v>1</v>
@@ -56968,7 +56968,7 @@
         <v>4497</v>
       </c>
       <c r="S639" t="s">
-        <v>5133</v>
+        <v>5134</v>
       </c>
       <c r="T639">
         <v>0</v>
@@ -57098,7 +57098,7 @@
         <v>4498</v>
       </c>
       <c r="S641" t="s">
-        <v>5134</v>
+        <v>5135</v>
       </c>
       <c r="T641">
         <v>0</v>
@@ -57163,7 +57163,7 @@
         <v>4499</v>
       </c>
       <c r="S642" t="s">
-        <v>5135</v>
+        <v>5136</v>
       </c>
       <c r="T642">
         <v>0</v>
@@ -57228,7 +57228,7 @@
         <v>4500</v>
       </c>
       <c r="S643" t="s">
-        <v>5136</v>
+        <v>5137</v>
       </c>
       <c r="T643">
         <v>1</v>
@@ -57293,7 +57293,7 @@
         <v>4501</v>
       </c>
       <c r="S644" t="s">
-        <v>5137</v>
+        <v>5138</v>
       </c>
       <c r="T644">
         <v>1</v>
@@ -57419,7 +57419,7 @@
         <v>4502</v>
       </c>
       <c r="S646" t="s">
-        <v>5138</v>
+        <v>5139</v>
       </c>
       <c r="T646">
         <v>0</v>
@@ -57484,7 +57484,7 @@
         <v>2675</v>
       </c>
       <c r="S647" t="s">
-        <v>5139</v>
+        <v>5140</v>
       </c>
       <c r="T647">
         <v>0</v>
@@ -57549,7 +57549,7 @@
         <v>4503</v>
       </c>
       <c r="S648" t="s">
-        <v>5140</v>
+        <v>5141</v>
       </c>
       <c r="T648">
         <v>0</v>
@@ -57675,7 +57675,7 @@
         <v>4504</v>
       </c>
       <c r="S650" t="s">
-        <v>5141</v>
+        <v>5142</v>
       </c>
       <c r="T650">
         <v>0</v>
@@ -57923,7 +57923,7 @@
         <v>4505</v>
       </c>
       <c r="S654" t="s">
-        <v>5142</v>
+        <v>5143</v>
       </c>
       <c r="T654">
         <v>0</v>
@@ -57988,7 +57988,7 @@
         <v>4505</v>
       </c>
       <c r="S655" t="s">
-        <v>5143</v>
+        <v>5144</v>
       </c>
       <c r="T655">
         <v>0</v>
@@ -58053,7 +58053,7 @@
         <v>4506</v>
       </c>
       <c r="S656" t="s">
-        <v>5144</v>
+        <v>5145</v>
       </c>
       <c r="T656">
         <v>0</v>
@@ -58118,7 +58118,7 @@
         <v>4507</v>
       </c>
       <c r="S657" t="s">
-        <v>5145</v>
+        <v>5146</v>
       </c>
       <c r="T657">
         <v>1</v>
@@ -58183,7 +58183,7 @@
         <v>4508</v>
       </c>
       <c r="S658" t="s">
-        <v>5146</v>
+        <v>5147</v>
       </c>
       <c r="T658">
         <v>3</v>
@@ -58309,7 +58309,7 @@
         <v>4509</v>
       </c>
       <c r="S660" t="s">
-        <v>5147</v>
+        <v>5148</v>
       </c>
       <c r="T660">
         <v>0</v>
@@ -58374,7 +58374,7 @@
         <v>4510</v>
       </c>
       <c r="S661" t="s">
-        <v>5148</v>
+        <v>5149</v>
       </c>
       <c r="T661">
         <v>0</v>
@@ -58439,7 +58439,7 @@
         <v>4511</v>
       </c>
       <c r="S662" t="s">
-        <v>5149</v>
+        <v>5150</v>
       </c>
       <c r="T662">
         <v>0</v>
@@ -58504,7 +58504,7 @@
         <v>4511</v>
       </c>
       <c r="S663" t="s">
-        <v>5149</v>
+        <v>5150</v>
       </c>
       <c r="T663">
         <v>0</v>
@@ -58630,7 +58630,7 @@
         <v>4512</v>
       </c>
       <c r="S665" t="s">
-        <v>5150</v>
+        <v>5151</v>
       </c>
       <c r="T665">
         <v>1</v>
@@ -58821,7 +58821,7 @@
         <v>4514</v>
       </c>
       <c r="S668" t="s">
-        <v>5151</v>
+        <v>5152</v>
       </c>
       <c r="T668">
         <v>0</v>
@@ -58886,7 +58886,7 @@
         <v>4515</v>
       </c>
       <c r="S669" t="s">
-        <v>5152</v>
+        <v>5153</v>
       </c>
       <c r="T669">
         <v>0</v>
@@ -59012,7 +59012,7 @@
         <v>4516</v>
       </c>
       <c r="S671" t="s">
-        <v>5153</v>
+        <v>5154</v>
       </c>
       <c r="T671">
         <v>0</v>
@@ -59077,7 +59077,7 @@
         <v>4517</v>
       </c>
       <c r="S672" t="s">
-        <v>5154</v>
+        <v>5155</v>
       </c>
       <c r="T672">
         <v>1</v>
@@ -59264,7 +59264,7 @@
         <v>4518</v>
       </c>
       <c r="S675" t="s">
-        <v>5155</v>
+        <v>5156</v>
       </c>
       <c r="T675">
         <v>0</v>
@@ -59329,7 +59329,7 @@
         <v>4519</v>
       </c>
       <c r="S676" t="s">
-        <v>5156</v>
+        <v>5157</v>
       </c>
       <c r="T676">
         <v>2</v>
@@ -59459,7 +59459,7 @@
         <v>4521</v>
       </c>
       <c r="S678" t="s">
-        <v>5157</v>
+        <v>5158</v>
       </c>
       <c r="T678">
         <v>0</v>
@@ -59524,7 +59524,7 @@
         <v>4522</v>
       </c>
       <c r="S679" t="s">
-        <v>5158</v>
+        <v>5159</v>
       </c>
       <c r="T679">
         <v>0</v>
@@ -59650,7 +59650,7 @@
         <v>4470</v>
       </c>
       <c r="S681" t="s">
-        <v>5159</v>
+        <v>5160</v>
       </c>
       <c r="T681">
         <v>1</v>
@@ -59715,7 +59715,7 @@
         <v>4523</v>
       </c>
       <c r="S682" t="s">
-        <v>5160</v>
+        <v>5161</v>
       </c>
       <c r="T682">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>4524</v>
       </c>
       <c r="S683" t="s">
-        <v>5161</v>
+        <v>5162</v>
       </c>
       <c r="T683">
         <v>0</v>
@@ -60036,7 +60036,7 @@
         <v>4527</v>
       </c>
       <c r="S687" t="s">
-        <v>5162</v>
+        <v>5163</v>
       </c>
       <c r="T687">
         <v>0</v>
@@ -60101,7 +60101,7 @@
         <v>4528</v>
       </c>
       <c r="S688" t="s">
-        <v>5163</v>
+        <v>5164</v>
       </c>
       <c r="T688">
         <v>2</v>
@@ -60471,7 +60471,7 @@
         <v>4529</v>
       </c>
       <c r="S694" t="s">
-        <v>5164</v>
+        <v>5165</v>
       </c>
       <c r="T694">
         <v>0</v>
@@ -60597,7 +60597,7 @@
         <v>4530</v>
       </c>
       <c r="S696" t="s">
-        <v>5165</v>
+        <v>5166</v>
       </c>
       <c r="T696">
         <v>0</v>
@@ -60849,7 +60849,7 @@
         <v>4532</v>
       </c>
       <c r="S700" t="s">
-        <v>5166</v>
+        <v>5167</v>
       </c>
       <c r="T700">
         <v>0</v>
@@ -60979,7 +60979,7 @@
         <v>4534</v>
       </c>
       <c r="S702" t="s">
-        <v>5167</v>
+        <v>5168</v>
       </c>
       <c r="T702">
         <v>0</v>
@@ -61044,7 +61044,7 @@
         <v>4535</v>
       </c>
       <c r="S703" t="s">
-        <v>5168</v>
+        <v>5169</v>
       </c>
       <c r="T703">
         <v>0</v>
@@ -61109,7 +61109,7 @@
         <v>4536</v>
       </c>
       <c r="S704" t="s">
-        <v>5169</v>
+        <v>5170</v>
       </c>
       <c r="T704">
         <v>0</v>
@@ -61296,7 +61296,7 @@
         <v>4537</v>
       </c>
       <c r="S707" t="s">
-        <v>5170</v>
+        <v>5171</v>
       </c>
       <c r="T707">
         <v>0</v>
@@ -61361,7 +61361,7 @@
         <v>4538</v>
       </c>
       <c r="S708" t="s">
-        <v>5171</v>
+        <v>5172</v>
       </c>
       <c r="T708">
         <v>0</v>
@@ -61426,7 +61426,7 @@
         <v>4539</v>
       </c>
       <c r="S709" t="s">
-        <v>5172</v>
+        <v>5173</v>
       </c>
       <c r="T709">
         <v>2</v>
@@ -61491,7 +61491,7 @@
         <v>4540</v>
       </c>
       <c r="S710" t="s">
-        <v>5173</v>
+        <v>5174</v>
       </c>
       <c r="T710">
         <v>1</v>
@@ -61556,7 +61556,7 @@
         <v>4541</v>
       </c>
       <c r="S711" t="s">
-        <v>5174</v>
+        <v>5175</v>
       </c>
       <c r="T711">
         <v>1</v>
@@ -61682,7 +61682,7 @@
         <v>4542</v>
       </c>
       <c r="S713" t="s">
-        <v>5175</v>
+        <v>5176</v>
       </c>
       <c r="T713">
         <v>0</v>
@@ -61747,7 +61747,7 @@
         <v>4543</v>
       </c>
       <c r="S714" t="s">
-        <v>5176</v>
+        <v>5177</v>
       </c>
       <c r="T714">
         <v>0</v>
@@ -61812,7 +61812,7 @@
         <v>4422</v>
       </c>
       <c r="S715" t="s">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="T715">
         <v>0</v>
@@ -62064,7 +62064,7 @@
         <v>4544</v>
       </c>
       <c r="S719" t="s">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="T719">
         <v>3</v>
@@ -62194,7 +62194,7 @@
         <v>4545</v>
       </c>
       <c r="S721" t="s">
-        <v>5179</v>
+        <v>5180</v>
       </c>
       <c r="T721">
         <v>1</v>
@@ -62507,7 +62507,7 @@
         <v>4546</v>
       </c>
       <c r="S726" t="s">
-        <v>5180</v>
+        <v>5181</v>
       </c>
       <c r="T726">
         <v>1</v>
@@ -62637,7 +62637,7 @@
         <v>4547</v>
       </c>
       <c r="S728" t="s">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="T728">
         <v>0</v>
@@ -62702,7 +62702,7 @@
         <v>4548</v>
       </c>
       <c r="S729" t="s">
-        <v>5182</v>
+        <v>5183</v>
       </c>
       <c r="T729">
         <v>0</v>
@@ -62889,7 +62889,7 @@
         <v>4549</v>
       </c>
       <c r="S732" t="s">
-        <v>5183</v>
+        <v>5184</v>
       </c>
       <c r="T732">
         <v>0</v>
@@ -62954,7 +62954,7 @@
         <v>4550</v>
       </c>
       <c r="S733" t="s">
-        <v>5184</v>
+        <v>5185</v>
       </c>
       <c r="T733">
         <v>0</v>
@@ -63019,7 +63019,7 @@
         <v>4551</v>
       </c>
       <c r="S734" t="s">
-        <v>5185</v>
+        <v>5186</v>
       </c>
       <c r="T734">
         <v>0</v>
@@ -63145,7 +63145,7 @@
         <v>4552</v>
       </c>
       <c r="S736" t="s">
-        <v>5186</v>
+        <v>5187</v>
       </c>
       <c r="T736">
         <v>0</v>
@@ -63210,7 +63210,7 @@
         <v>4553</v>
       </c>
       <c r="S737" t="s">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="T737">
         <v>2</v>
@@ -63275,7 +63275,7 @@
         <v>4554</v>
       </c>
       <c r="S738" t="s">
-        <v>5188</v>
+        <v>5189</v>
       </c>
       <c r="T738">
         <v>0</v>
@@ -63340,7 +63340,7 @@
         <v>4555</v>
       </c>
       <c r="S739" t="s">
-        <v>5189</v>
+        <v>5190</v>
       </c>
       <c r="T739">
         <v>0</v>
@@ -63405,7 +63405,7 @@
         <v>4556</v>
       </c>
       <c r="S740" t="s">
-        <v>5190</v>
+        <v>5191</v>
       </c>
       <c r="T740">
         <v>1</v>
@@ -63470,7 +63470,7 @@
         <v>4557</v>
       </c>
       <c r="S741" t="s">
-        <v>5191</v>
+        <v>5192</v>
       </c>
       <c r="T741">
         <v>0</v>
@@ -63535,7 +63535,7 @@
         <v>4558</v>
       </c>
       <c r="S742" t="s">
-        <v>5192</v>
+        <v>5193</v>
       </c>
       <c r="T742">
         <v>0</v>
@@ -63722,7 +63722,7 @@
         <v>4559</v>
       </c>
       <c r="S745" t="s">
-        <v>5193</v>
+        <v>5194</v>
       </c>
       <c r="T745">
         <v>0</v>
@@ -63787,7 +63787,7 @@
         <v>4560</v>
       </c>
       <c r="S746" t="s">
-        <v>5194</v>
+        <v>5195</v>
       </c>
       <c r="T746">
         <v>2</v>
@@ -63852,7 +63852,7 @@
         <v>4561</v>
       </c>
       <c r="S747" t="s">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="T747">
         <v>0</v>
@@ -63917,7 +63917,7 @@
         <v>2644</v>
       </c>
       <c r="S748" t="s">
-        <v>5196</v>
+        <v>5197</v>
       </c>
       <c r="T748">
         <v>0</v>
@@ -64108,7 +64108,7 @@
         <v>4562</v>
       </c>
       <c r="S751" t="s">
-        <v>5197</v>
+        <v>5198</v>
       </c>
       <c r="T751">
         <v>0</v>
@@ -64303,7 +64303,7 @@
         <v>4564</v>
       </c>
       <c r="S754" t="s">
-        <v>5198</v>
+        <v>5199</v>
       </c>
       <c r="T754">
         <v>2</v>
@@ -64368,7 +64368,7 @@
         <v>4565</v>
       </c>
       <c r="S755" t="s">
-        <v>5199</v>
+        <v>5200</v>
       </c>
       <c r="T755">
         <v>0</v>
@@ -64433,7 +64433,7 @@
         <v>2717</v>
       </c>
       <c r="S756" t="s">
-        <v>5200</v>
+        <v>5201</v>
       </c>
       <c r="T756">
         <v>1</v>
@@ -64498,7 +64498,7 @@
         <v>4566</v>
       </c>
       <c r="S757" t="s">
-        <v>5201</v>
+        <v>5202</v>
       </c>
       <c r="T757">
         <v>0</v>
@@ -64563,7 +64563,7 @@
         <v>4567</v>
       </c>
       <c r="S758" t="s">
-        <v>5202</v>
+        <v>5203</v>
       </c>
       <c r="T758">
         <v>0</v>
@@ -64628,7 +64628,7 @@
         <v>4568</v>
       </c>
       <c r="S759" t="s">
-        <v>5203</v>
+        <v>5204</v>
       </c>
       <c r="T759">
         <v>1</v>
@@ -64693,7 +64693,7 @@
         <v>4569</v>
       </c>
       <c r="S760" t="s">
-        <v>5204</v>
+        <v>5205</v>
       </c>
       <c r="T760">
         <v>0</v>
@@ -64819,7 +64819,7 @@
         <v>2720</v>
       </c>
       <c r="S762" t="s">
-        <v>5205</v>
+        <v>5206</v>
       </c>
       <c r="T762">
         <v>7</v>
@@ -64884,7 +64884,7 @@
         <v>4570</v>
       </c>
       <c r="S763" t="s">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="T763">
         <v>3</v>
@@ -64949,7 +64949,7 @@
         <v>4571</v>
       </c>
       <c r="S764" t="s">
-        <v>5207</v>
+        <v>5208</v>
       </c>
       <c r="T764">
         <v>0</v>
@@ -65014,7 +65014,7 @@
         <v>4572</v>
       </c>
       <c r="S765" t="s">
-        <v>5208</v>
+        <v>5209</v>
       </c>
       <c r="T765">
         <v>0</v>
@@ -65140,7 +65140,7 @@
         <v>4573</v>
       </c>
       <c r="S767" t="s">
-        <v>5209</v>
+        <v>5210</v>
       </c>
       <c r="T767">
         <v>3</v>
@@ -65205,7 +65205,7 @@
         <v>4574</v>
       </c>
       <c r="S768" t="s">
-        <v>5210</v>
+        <v>5211</v>
       </c>
       <c r="T768">
         <v>0</v>
@@ -65453,7 +65453,7 @@
         <v>4575</v>
       </c>
       <c r="S772" t="s">
-        <v>5211</v>
+        <v>5212</v>
       </c>
       <c r="T772">
         <v>0</v>
@@ -65518,7 +65518,7 @@
         <v>4576</v>
       </c>
       <c r="S773" t="s">
-        <v>5212</v>
+        <v>5213</v>
       </c>
       <c r="T773">
         <v>0</v>
@@ -65583,7 +65583,7 @@
         <v>2727</v>
       </c>
       <c r="S774" t="s">
-        <v>5213</v>
+        <v>5214</v>
       </c>
       <c r="T774">
         <v>0</v>
@@ -65648,7 +65648,7 @@
         <v>2491</v>
       </c>
       <c r="S775" t="s">
-        <v>5214</v>
+        <v>5215</v>
       </c>
       <c r="T775">
         <v>0</v>
@@ -65774,7 +65774,7 @@
         <v>4577</v>
       </c>
       <c r="S777" t="s">
-        <v>5215</v>
+        <v>5216</v>
       </c>
       <c r="T777">
         <v>0</v>
@@ -65839,7 +65839,7 @@
         <v>4578</v>
       </c>
       <c r="S778" t="s">
-        <v>5216</v>
+        <v>5217</v>
       </c>
       <c r="T778">
         <v>4</v>
@@ -65965,7 +65965,7 @@
         <v>4579</v>
       </c>
       <c r="S780" t="s">
-        <v>5217</v>
+        <v>5218</v>
       </c>
       <c r="T780">
         <v>0</v>
@@ -66030,7 +66030,7 @@
         <v>4580</v>
       </c>
       <c r="S781" t="s">
-        <v>5218</v>
+        <v>5219</v>
       </c>
       <c r="T781">
         <v>0</v>
@@ -66095,7 +66095,7 @@
         <v>2572</v>
       </c>
       <c r="S782" t="s">
-        <v>5219</v>
+        <v>5220</v>
       </c>
       <c r="T782">
         <v>0</v>
@@ -66225,7 +66225,7 @@
         <v>4581</v>
       </c>
       <c r="S784" t="s">
-        <v>5220</v>
+        <v>5221</v>
       </c>
       <c r="T784">
         <v>0</v>
@@ -66481,7 +66481,7 @@
         <v>4582</v>
       </c>
       <c r="S788" t="s">
-        <v>5221</v>
+        <v>5222</v>
       </c>
       <c r="T788">
         <v>0</v>
@@ -66546,7 +66546,7 @@
         <v>2849</v>
       </c>
       <c r="S789" t="s">
-        <v>5222</v>
+        <v>5223</v>
       </c>
       <c r="T789">
         <v>0</v>
@@ -66611,7 +66611,7 @@
         <v>4583</v>
       </c>
       <c r="S790" t="s">
-        <v>5223</v>
+        <v>5224</v>
       </c>
       <c r="T790">
         <v>0</v>
@@ -66737,7 +66737,7 @@
         <v>4584</v>
       </c>
       <c r="S792" t="s">
-        <v>5224</v>
+        <v>5225</v>
       </c>
       <c r="T792">
         <v>0</v>
@@ -66867,7 +66867,7 @@
         <v>4022</v>
       </c>
       <c r="S794" t="s">
-        <v>5225</v>
+        <v>5226</v>
       </c>
       <c r="T794">
         <v>0</v>
@@ -66997,7 +66997,7 @@
         <v>4587</v>
       </c>
       <c r="S796" t="s">
-        <v>5226</v>
+        <v>5227</v>
       </c>
       <c r="T796">
         <v>0</v>
@@ -67123,7 +67123,7 @@
         <v>4588</v>
       </c>
       <c r="S798" t="s">
-        <v>5227</v>
+        <v>5228</v>
       </c>
       <c r="T798">
         <v>0</v>
@@ -67253,7 +67253,7 @@
         <v>4590</v>
       </c>
       <c r="S800" t="s">
-        <v>5228</v>
+        <v>5229</v>
       </c>
       <c r="T800">
         <v>0</v>
@@ -67379,7 +67379,7 @@
         <v>4591</v>
       </c>
       <c r="S802" t="s">
-        <v>5229</v>
+        <v>5230</v>
       </c>
       <c r="T802">
         <v>0</v>
@@ -67570,7 +67570,7 @@
         <v>4593</v>
       </c>
       <c r="S805" t="s">
-        <v>5230</v>
+        <v>5231</v>
       </c>
       <c r="T805">
         <v>0</v>
@@ -67635,7 +67635,7 @@
         <v>4594</v>
       </c>
       <c r="S806" t="s">
-        <v>5231</v>
+        <v>5232</v>
       </c>
       <c r="T806">
         <v>0</v>
@@ -67700,7 +67700,7 @@
         <v>4595</v>
       </c>
       <c r="S807" t="s">
-        <v>5232</v>
+        <v>5233</v>
       </c>
       <c r="T807">
         <v>1</v>
@@ -67826,7 +67826,7 @@
         <v>4596</v>
       </c>
       <c r="S809" t="s">
-        <v>5233</v>
+        <v>5234</v>
       </c>
       <c r="T809">
         <v>1</v>
@@ -67891,7 +67891,7 @@
         <v>4597</v>
       </c>
       <c r="S810" t="s">
-        <v>5234</v>
+        <v>5235</v>
       </c>
       <c r="T810">
         <v>0</v>
@@ -67956,7 +67956,7 @@
         <v>4597</v>
       </c>
       <c r="S811" t="s">
-        <v>5234</v>
+        <v>5235</v>
       </c>
       <c r="T811">
         <v>1</v>
@@ -68326,7 +68326,7 @@
         <v>4598</v>
       </c>
       <c r="S817" t="s">
-        <v>5235</v>
+        <v>5236</v>
       </c>
       <c r="T817">
         <v>0</v>
@@ -68391,7 +68391,7 @@
         <v>4599</v>
       </c>
       <c r="S818" t="s">
-        <v>5236</v>
+        <v>5237</v>
       </c>
       <c r="T818">
         <v>0</v>
@@ -68456,7 +68456,7 @@
         <v>4600</v>
       </c>
       <c r="S819" t="s">
-        <v>5237</v>
+        <v>5238</v>
       </c>
       <c r="T819">
         <v>3</v>
@@ -68521,7 +68521,7 @@
         <v>4601</v>
       </c>
       <c r="S820" t="s">
-        <v>5238</v>
+        <v>5239</v>
       </c>
       <c r="T820">
         <v>0</v>
@@ -68647,7 +68647,7 @@
         <v>4602</v>
       </c>
       <c r="S822" t="s">
-        <v>5239</v>
+        <v>5240</v>
       </c>
       <c r="T822">
         <v>0</v>
@@ -68712,7 +68712,7 @@
         <v>4603</v>
       </c>
       <c r="S823" t="s">
-        <v>5240</v>
+        <v>5241</v>
       </c>
       <c r="T823">
         <v>1</v>
@@ -68777,7 +68777,7 @@
         <v>4604</v>
       </c>
       <c r="S824" t="s">
-        <v>5241</v>
+        <v>5242</v>
       </c>
       <c r="T824">
         <v>0</v>
@@ -68968,7 +68968,7 @@
         <v>4404</v>
       </c>
       <c r="S827" t="s">
-        <v>5242</v>
+        <v>5243</v>
       </c>
       <c r="T827">
         <v>0</v>
@@ -69094,7 +69094,7 @@
         <v>2744</v>
       </c>
       <c r="S829" t="s">
-        <v>5243</v>
+        <v>5244</v>
       </c>
       <c r="T829">
         <v>0</v>
@@ -69159,7 +69159,7 @@
         <v>4605</v>
       </c>
       <c r="S830" t="s">
-        <v>5244</v>
+        <v>5245</v>
       </c>
       <c r="T830">
         <v>0</v>
@@ -69224,7 +69224,7 @@
         <v>4606</v>
       </c>
       <c r="S831" t="s">
-        <v>5245</v>
+        <v>5246</v>
       </c>
       <c r="T831">
         <v>3</v>
@@ -69289,7 +69289,7 @@
         <v>4607</v>
       </c>
       <c r="S832" t="s">
-        <v>5246</v>
+        <v>5247</v>
       </c>
       <c r="T832">
         <v>1</v>
@@ -69354,7 +69354,7 @@
         <v>4436</v>
       </c>
       <c r="S833" t="s">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="T833">
         <v>0</v>
@@ -69724,7 +69724,7 @@
         <v>4608</v>
       </c>
       <c r="S839" t="s">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="T839">
         <v>0</v>
@@ -69789,7 +69789,7 @@
         <v>4341</v>
       </c>
       <c r="S840" t="s">
-        <v>5249</v>
+        <v>5250</v>
       </c>
       <c r="T840">
         <v>0</v>
@@ -70102,7 +70102,7 @@
         <v>2610</v>
       </c>
       <c r="S845" t="s">
-        <v>5250</v>
+        <v>5044</v>
       </c>
       <c r="T845">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         <v>4645</v>
       </c>
       <c r="S948" t="s">
-        <v>5306</v>
+        <v>5292</v>
       </c>
       <c r="T948">
         <v>0</v>
@@ -76718,7 +76718,7 @@
         <v>4659</v>
       </c>
       <c r="S949" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
       <c r="T949">
         <v>0</v>
@@ -77035,7 +77035,7 @@
         <v>4661</v>
       </c>
       <c r="S954" t="s">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="T954">
         <v>0</v>
@@ -77161,7 +77161,7 @@
         <v>4662</v>
       </c>
       <c r="S956" t="s">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="T956">
         <v>1</v>
@@ -77226,7 +77226,7 @@
         <v>4663</v>
       </c>
       <c r="S957" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="T957">
         <v>2</v>
@@ -77352,7 +77352,7 @@
         <v>4664</v>
       </c>
       <c r="S959" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="T959">
         <v>0</v>
@@ -77417,7 +77417,7 @@
         <v>4665</v>
       </c>
       <c r="S960" t="s">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="T960">
         <v>0</v>
@@ -77608,7 +77608,7 @@
         <v>4667</v>
       </c>
       <c r="S963" t="s">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="T963">
         <v>0</v>
@@ -77673,7 +77673,7 @@
         <v>2839</v>
       </c>
       <c r="S964" t="s">
-        <v>5314</v>
+        <v>5313</v>
       </c>
       <c r="T964">
         <v>0</v>
@@ -77738,7 +77738,7 @@
         <v>4668</v>
       </c>
       <c r="S965" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="T965">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>4669</v>
       </c>
       <c r="S966" t="s">
-        <v>5316</v>
+        <v>5315</v>
       </c>
       <c r="T966">
         <v>1</v>
@@ -77868,7 +77868,7 @@
         <v>4670</v>
       </c>
       <c r="S967" t="s">
-        <v>5317</v>
+        <v>5316</v>
       </c>
       <c r="T967">
         <v>0</v>
@@ -77933,7 +77933,7 @@
         <v>4671</v>
       </c>
       <c r="S968" t="s">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="T968">
         <v>3</v>
@@ -77998,7 +77998,7 @@
         <v>4672</v>
       </c>
       <c r="S969" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="T969">
         <v>0</v>
@@ -78124,7 +78124,7 @@
         <v>4673</v>
       </c>
       <c r="S971" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="T971">
         <v>0</v>
@@ -78189,7 +78189,7 @@
         <v>4271</v>
       </c>
       <c r="S972" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="T972">
         <v>0</v>
@@ -78376,7 +78376,7 @@
         <v>4674</v>
       </c>
       <c r="S975" t="s">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="T975">
         <v>0</v>
@@ -78567,7 +78567,7 @@
         <v>4676</v>
       </c>
       <c r="S978" t="s">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="T978">
         <v>0</v>
@@ -78632,7 +78632,7 @@
         <v>4677</v>
       </c>
       <c r="S979" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="T979">
         <v>0</v>
@@ -78697,7 +78697,7 @@
         <v>4676</v>
       </c>
       <c r="S980" t="s">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="T980">
         <v>2</v>
@@ -78762,7 +78762,7 @@
         <v>4678</v>
       </c>
       <c r="S981" t="s">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="T981">
         <v>0</v>
@@ -78888,7 +78888,7 @@
         <v>4679</v>
       </c>
       <c r="S983" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="T983">
         <v>0</v>
@@ -78953,7 +78953,7 @@
         <v>4629</v>
       </c>
       <c r="S984" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="T984">
         <v>0</v>
@@ -79018,7 +79018,7 @@
         <v>4680</v>
       </c>
       <c r="S985" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="T985">
         <v>0</v>
@@ -79083,7 +79083,7 @@
         <v>4681</v>
       </c>
       <c r="S986" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="T986">
         <v>0</v>
@@ -79148,7 +79148,7 @@
         <v>2622</v>
       </c>
       <c r="S987" t="s">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="T987">
         <v>0</v>
@@ -79274,7 +79274,7 @@
         <v>4682</v>
       </c>
       <c r="S989" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="T989">
         <v>1</v>
@@ -79404,7 +79404,7 @@
         <v>4629</v>
       </c>
       <c r="S991" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="T991">
         <v>0</v>
@@ -79469,7 +79469,7 @@
         <v>4657</v>
       </c>
       <c r="S992" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="T992">
         <v>0</v>
@@ -79595,7 +79595,7 @@
         <v>2849</v>
       </c>
       <c r="S994" t="s">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="T994">
         <v>0</v>
@@ -79969,7 +79969,7 @@
         <v>4022</v>
       </c>
       <c r="S1000" t="s">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="T1000">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>4685</v>
       </c>
       <c r="S1001" t="s">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="T1001">
         <v>0</v>
@@ -80160,7 +80160,7 @@
         <v>4686</v>
       </c>
       <c r="S1003" t="s">
-        <v>5336</v>
+        <v>5335</v>
       </c>
       <c r="T1003">
         <v>0</v>
@@ -80225,7 +80225,7 @@
         <v>4687</v>
       </c>
       <c r="S1004" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="T1004">
         <v>0</v>
@@ -80290,7 +80290,7 @@
         <v>4688</v>
       </c>
       <c r="S1005" t="s">
-        <v>5338</v>
+        <v>5337</v>
       </c>
       <c r="T1005">
         <v>0</v>
@@ -80416,7 +80416,7 @@
         <v>4689</v>
       </c>
       <c r="S1007" t="s">
-        <v>5339</v>
+        <v>5338</v>
       </c>
       <c r="T1007">
         <v>0</v>
@@ -80542,7 +80542,7 @@
         <v>4690</v>
       </c>
       <c r="S1009" t="s">
-        <v>5340</v>
+        <v>5339</v>
       </c>
       <c r="T1009">
         <v>0</v>
@@ -80733,7 +80733,7 @@
         <v>4692</v>
       </c>
       <c r="S1012" t="s">
-        <v>5341</v>
+        <v>5340</v>
       </c>
       <c r="T1012">
         <v>0</v>
@@ -80798,7 +80798,7 @@
         <v>4693</v>
       </c>
       <c r="S1013" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
       <c r="T1013">
         <v>0</v>
@@ -80863,7 +80863,7 @@
         <v>4694</v>
       </c>
       <c r="S1014" t="s">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="T1014">
         <v>0</v>
@@ -81050,7 +81050,7 @@
         <v>4695</v>
       </c>
       <c r="S1017" t="s">
-        <v>5344</v>
+        <v>5343</v>
       </c>
       <c r="T1017">
         <v>0</v>
@@ -81176,7 +81176,7 @@
         <v>4696</v>
       </c>
       <c r="S1019" t="s">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="T1019">
         <v>0</v>
@@ -81241,7 +81241,7 @@
         <v>4404</v>
       </c>
       <c r="S1020" t="s">
-        <v>5346</v>
+        <v>5345</v>
       </c>
       <c r="T1020">
         <v>0</v>
@@ -81306,7 +81306,7 @@
         <v>4693</v>
       </c>
       <c r="S1021" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
       <c r="T1021">
         <v>1</v>
@@ -81432,7 +81432,7 @@
         <v>2815</v>
       </c>
       <c r="S1023" t="s">
-        <v>5347</v>
+        <v>5346</v>
       </c>
       <c r="T1023">
         <v>0</v>
@@ -81558,7 +81558,7 @@
         <v>4692</v>
       </c>
       <c r="S1025" t="s">
-        <v>5348</v>
+        <v>5347</v>
       </c>
       <c r="T1025">
         <v>0</v>
@@ -81684,7 +81684,7 @@
         <v>4697</v>
       </c>
       <c r="S1027" t="s">
-        <v>5349</v>
+        <v>5348</v>
       </c>
       <c r="T1027">
         <v>0</v>
@@ -81871,7 +81871,7 @@
         <v>4698</v>
       </c>
       <c r="S1030" t="s">
-        <v>5350</v>
+        <v>5349</v>
       </c>
       <c r="T1030">
         <v>0</v>
@@ -81936,7 +81936,7 @@
         <v>4699</v>
       </c>
       <c r="S1031" t="s">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="T1031">
         <v>0</v>
@@ -82001,7 +82001,7 @@
         <v>4700</v>
       </c>
       <c r="S1032" t="s">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="T1032">
         <v>0</v>
@@ -82066,7 +82066,7 @@
         <v>4701</v>
       </c>
       <c r="S1033" t="s">
-        <v>5353</v>
+        <v>5352</v>
       </c>
       <c r="T1033">
         <v>1</v>
@@ -82253,7 +82253,7 @@
         <v>4702</v>
       </c>
       <c r="S1036" t="s">
-        <v>5354</v>
+        <v>5353</v>
       </c>
       <c r="T1036">
         <v>0</v>
@@ -82318,7 +82318,7 @@
         <v>4703</v>
       </c>
       <c r="S1037" t="s">
-        <v>5355</v>
+        <v>5354</v>
       </c>
       <c r="T1037">
         <v>1</v>
@@ -82383,7 +82383,7 @@
         <v>4704</v>
       </c>
       <c r="S1038" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="T1038">
         <v>2</v>
@@ -82509,7 +82509,7 @@
         <v>4705</v>
       </c>
       <c r="S1040" t="s">
-        <v>5357</v>
+        <v>5356</v>
       </c>
       <c r="T1040">
         <v>1</v>
@@ -82574,7 +82574,7 @@
         <v>4706</v>
       </c>
       <c r="S1041" t="s">
-        <v>5358</v>
+        <v>5357</v>
       </c>
       <c r="T1041">
         <v>0</v>
@@ -82639,7 +82639,7 @@
         <v>4605</v>
       </c>
       <c r="S1042" t="s">
-        <v>5359</v>
+        <v>5358</v>
       </c>
       <c r="T1042">
         <v>0</v>
@@ -82765,7 +82765,7 @@
         <v>4707</v>
       </c>
       <c r="S1044" t="s">
-        <v>5360</v>
+        <v>5359</v>
       </c>
       <c r="T1044">
         <v>2</v>
@@ -82830,7 +82830,7 @@
         <v>4708</v>
       </c>
       <c r="S1045" t="s">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="T1045">
         <v>0</v>
@@ -82895,7 +82895,7 @@
         <v>4709</v>
       </c>
       <c r="S1046" t="s">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="T1046">
         <v>1</v>
@@ -82960,7 +82960,7 @@
         <v>2849</v>
       </c>
       <c r="S1047" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="T1047">
         <v>0</v>
@@ -83025,7 +83025,7 @@
         <v>4710</v>
       </c>
       <c r="S1048" t="s">
-        <v>5364</v>
+        <v>5363</v>
       </c>
       <c r="T1048">
         <v>3</v>
@@ -83090,7 +83090,7 @@
         <v>4711</v>
       </c>
       <c r="S1049" t="s">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="T1049">
         <v>2</v>
@@ -83338,7 +83338,7 @@
         <v>4712</v>
       </c>
       <c r="S1053" t="s">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="T1053">
         <v>0</v>
@@ -83403,7 +83403,7 @@
         <v>4713</v>
       </c>
       <c r="S1054" t="s">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="T1054">
         <v>0</v>
@@ -83468,7 +83468,7 @@
         <v>4714</v>
       </c>
       <c r="S1055" t="s">
-        <v>5368</v>
+        <v>5367</v>
       </c>
       <c r="T1055">
         <v>0</v>
@@ -83533,7 +83533,7 @@
         <v>4715</v>
       </c>
       <c r="S1056" t="s">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="T1056">
         <v>0</v>
@@ -83598,7 +83598,7 @@
         <v>4716</v>
       </c>
       <c r="S1057" t="s">
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="T1057">
         <v>0</v>
@@ -83846,7 +83846,7 @@
         <v>4717</v>
       </c>
       <c r="S1061" t="s">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="T1061">
         <v>0</v>
@@ -83911,7 +83911,7 @@
         <v>4693</v>
       </c>
       <c r="S1062" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
       <c r="T1062">
         <v>0</v>
@@ -83976,7 +83976,7 @@
         <v>4718</v>
       </c>
       <c r="S1063" t="s">
-        <v>5372</v>
+        <v>5371</v>
       </c>
       <c r="T1063">
         <v>0</v>
@@ -84041,7 +84041,7 @@
         <v>4719</v>
       </c>
       <c r="S1064" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="T1064">
         <v>1</v>
@@ -84106,7 +84106,7 @@
         <v>4720</v>
       </c>
       <c r="S1065" t="s">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="T1065">
         <v>2</v>
@@ -84171,7 +84171,7 @@
         <v>4721</v>
       </c>
       <c r="S1066" t="s">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="T1066">
         <v>2</v>
@@ -84297,7 +84297,7 @@
         <v>4693</v>
       </c>
       <c r="S1068" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
       <c r="T1068">
         <v>6</v>
@@ -84362,7 +84362,7 @@
         <v>4722</v>
       </c>
       <c r="S1069" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="T1069">
         <v>0</v>
@@ -84488,7 +84488,7 @@
         <v>4723</v>
       </c>
       <c r="S1071" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="T1071">
         <v>1</v>
@@ -84614,7 +84614,7 @@
         <v>4724</v>
       </c>
       <c r="S1073" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
       <c r="T1073">
         <v>3</v>
@@ -84801,7 +84801,7 @@
         <v>4725</v>
       </c>
       <c r="S1076" t="s">
-        <v>5379</v>
+        <v>5378</v>
       </c>
       <c r="T1076">
         <v>1</v>
@@ -84866,7 +84866,7 @@
         <v>4726</v>
       </c>
       <c r="S1077" t="s">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="T1077">
         <v>1</v>
@@ -84931,7 +84931,7 @@
         <v>2829</v>
       </c>
       <c r="S1078" t="s">
-        <v>5381</v>
+        <v>5380</v>
       </c>
       <c r="T1078">
         <v>0</v>
@@ -84996,7 +84996,7 @@
         <v>4727</v>
       </c>
       <c r="S1079" t="s">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="T1079">
         <v>0</v>
@@ -85183,7 +85183,7 @@
         <v>2505</v>
       </c>
       <c r="S1082" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
       <c r="T1082">
         <v>0</v>
@@ -85431,7 +85431,7 @@
         <v>4728</v>
       </c>
       <c r="S1086" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="T1086">
         <v>1</v>
@@ -85557,7 +85557,7 @@
         <v>4729</v>
       </c>
       <c r="S1088" t="s">
-        <v>5385</v>
+        <v>5384</v>
       </c>
       <c r="T1088">
         <v>0</v>
@@ -85622,7 +85622,7 @@
         <v>4730</v>
       </c>
       <c r="S1089" t="s">
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="T1089">
         <v>0</v>
@@ -85687,7 +85687,7 @@
         <v>4731</v>
       </c>
       <c r="S1090" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="T1090">
         <v>0</v>
@@ -86004,7 +86004,7 @@
         <v>2629</v>
       </c>
       <c r="S1095" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="T1095">
         <v>1</v>
@@ -86069,7 +86069,7 @@
         <v>2629</v>
       </c>
       <c r="S1096" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="T1096">
         <v>1</v>
@@ -86134,7 +86134,7 @@
         <v>4733</v>
       </c>
       <c r="S1097" t="s">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="T1097">
         <v>0</v>
@@ -86199,7 +86199,7 @@
         <v>4734</v>
       </c>
       <c r="S1098" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="T1098">
         <v>0</v>
@@ -86264,7 +86264,7 @@
         <v>4735</v>
       </c>
       <c r="S1099" t="s">
-        <v>5391</v>
+        <v>5390</v>
       </c>
       <c r="T1099">
         <v>1</v>
@@ -86329,7 +86329,7 @@
         <v>4736</v>
       </c>
       <c r="S1100" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="T1100">
         <v>0</v>
@@ -86459,7 +86459,7 @@
         <v>4738</v>
       </c>
       <c r="S1102" t="s">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="T1102">
         <v>0</v>
@@ -86524,7 +86524,7 @@
         <v>4739</v>
       </c>
       <c r="S1103" t="s">
-        <v>5394</v>
+        <v>5393</v>
       </c>
       <c r="T1103">
         <v>0</v>
@@ -86650,7 +86650,7 @@
         <v>4740</v>
       </c>
       <c r="S1105" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="T1105">
         <v>0</v>
@@ -86776,7 +86776,7 @@
         <v>4741</v>
       </c>
       <c r="S1107" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
       <c r="T1107">
         <v>0</v>
@@ -86902,7 +86902,7 @@
         <v>4742</v>
       </c>
       <c r="S1109" t="s">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="T1109">
         <v>0</v>
@@ -86967,7 +86967,7 @@
         <v>4743</v>
       </c>
       <c r="S1110" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="T1110">
         <v>0</v>
@@ -87032,7 +87032,7 @@
         <v>4744</v>
       </c>
       <c r="S1111" t="s">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="T1111">
         <v>0</v>
@@ -87097,7 +87097,7 @@
         <v>4745</v>
       </c>
       <c r="S1112" t="s">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="T1112">
         <v>0</v>
@@ -87162,7 +87162,7 @@
         <v>4746</v>
       </c>
       <c r="S1113" t="s">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="T1113">
         <v>0</v>
@@ -87288,7 +87288,7 @@
         <v>4747</v>
       </c>
       <c r="S1115" t="s">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="T1115">
         <v>0</v>
@@ -87414,7 +87414,7 @@
         <v>4748</v>
       </c>
       <c r="S1117" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="T1117">
         <v>0</v>
@@ -87540,7 +87540,7 @@
         <v>4749</v>
       </c>
       <c r="S1119" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="T1119">
         <v>0</v>
